--- a/report/IPB1-2-SRI-IPB2-DC.xlsx
+++ b/report/IPB1-2-SRI-IPB2-DC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12885" yWindow="-15" windowWidth="12930" windowHeight="12540" tabRatio="862" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="3225" yWindow="-135" windowWidth="12930" windowHeight="12540" tabRatio="862" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IPB1-26b" sheetId="20" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="104">
   <si>
     <t>NQ</t>
   </si>
@@ -333,6 +333,12 @@
   </si>
   <si>
     <t>Term1-Term2</t>
+  </si>
+  <si>
+    <t>HP1-HP2</t>
+  </si>
+  <si>
+    <t>CoreQPow1-CoreQPow2</t>
   </si>
 </sst>
 </file>
@@ -837,6 +843,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="16" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -864,13 +876,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1228,11 +1236,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="136823360"/>
-        <c:axId val="136823936"/>
+        <c:axId val="272955584"/>
+        <c:axId val="272956160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="136823360"/>
+        <c:axId val="272955584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,12 +1250,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136823936"/>
+        <c:crossAx val="272956160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="136823936"/>
+        <c:axId val="272956160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1258,7 +1266,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136823360"/>
+        <c:crossAx val="272955584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1408,11 +1416,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="136825664"/>
-        <c:axId val="136826240"/>
+        <c:axId val="358269504"/>
+        <c:axId val="358270080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="136825664"/>
+        <c:axId val="358269504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="7"/>
@@ -1437,19 +1445,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136826240"/>
+        <c:crossAx val="358270080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="136826240"/>
+        <c:axId val="358270080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.75000000000000011"/>
@@ -1488,7 +1495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136825664"/>
+        <c:crossAx val="358269504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1604,11 +1611,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="136828544"/>
-        <c:axId val="136829120"/>
+        <c:axId val="358272384"/>
+        <c:axId val="358272960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="136828544"/>
+        <c:axId val="358272384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
@@ -1632,19 +1639,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136829120"/>
+        <c:crossAx val="358272960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="136829120"/>
+        <c:axId val="358272960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -1682,7 +1688,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136828544"/>
+        <c:crossAx val="358272384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.000000000000001E-2"/>
@@ -2235,11 +2241,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137093696"/>
-        <c:axId val="137094272"/>
+        <c:axId val="358275264"/>
+        <c:axId val="358275840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137093696"/>
+        <c:axId val="358275264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2264,20 +2270,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137094272"/>
+        <c:crossAx val="358275840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137094272"/>
+        <c:axId val="358275840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.65000000000000013"/>
@@ -2316,7 +2321,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137093696"/>
+        <c:crossAx val="358275264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.000000000000001E-2"/>
@@ -2398,7 +2403,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2727,11 +2731,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137097152"/>
-        <c:axId val="137097728"/>
+        <c:axId val="358475456"/>
+        <c:axId val="358476032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137097152"/>
+        <c:axId val="358475456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2773,7 +2777,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2807,12 +2810,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137097728"/>
+        <c:crossAx val="358476032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137097728"/>
+        <c:axId val="358476032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2863,7 +2866,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2897,7 +2899,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137097152"/>
+        <c:crossAx val="358475456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2912,7 +2914,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3577,29 +3578,29 @@
       <c r="G1" s="66"/>
       <c r="H1" s="40"/>
       <c r="I1" s="11"/>
-      <c r="J1" s="155" t="s">
+      <c r="J1" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="156"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="158"/>
       <c r="O1" s="13"/>
-      <c r="P1" s="157" t="s">
+      <c r="P1" s="159" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="157"/>
-      <c r="S1" s="157"/>
-      <c r="T1" s="158"/>
-      <c r="V1" s="151" t="s">
+      <c r="Q1" s="159"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="159"/>
+      <c r="T1" s="160"/>
+      <c r="V1" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="151"/>
+      <c r="W1" s="153"/>
+      <c r="X1" s="153"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="153"/>
+      <c r="AA1" s="153"/>
       <c r="AB1" s="5" t="s">
         <v>18</v>
       </c>
@@ -3607,27 +3608,27 @@
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
       <c r="AF1" s="5"/>
-      <c r="AG1" s="151" t="s">
+      <c r="AG1" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="151"/>
-      <c r="AJ1" s="151"/>
-      <c r="AK1" s="151"/>
-      <c r="AL1" s="151" t="s">
+      <c r="AH1" s="153"/>
+      <c r="AI1" s="153"/>
+      <c r="AJ1" s="153"/>
+      <c r="AK1" s="153"/>
+      <c r="AL1" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="AM1" s="151"/>
-      <c r="AN1" s="151"/>
-      <c r="AO1" s="151"/>
-      <c r="AP1" s="151"/>
-      <c r="AQ1" s="151" t="s">
+      <c r="AM1" s="153"/>
+      <c r="AN1" s="153"/>
+      <c r="AO1" s="153"/>
+      <c r="AP1" s="153"/>
+      <c r="AQ1" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="151"/>
-      <c r="AS1" s="151"/>
-      <c r="AT1" s="151"/>
-      <c r="AU1" s="151"/>
+      <c r="AR1" s="153"/>
+      <c r="AS1" s="153"/>
+      <c r="AT1" s="153"/>
+      <c r="AU1" s="153"/>
     </row>
     <row r="2" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3813,7 +3814,7 @@
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="152" t="s">
+      <c r="O3" s="154" t="s">
         <v>10</v>
       </c>
       <c r="P3" s="9"/>
@@ -3856,7 +3857,7 @@
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="152"/>
+      <c r="O4" s="154"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
@@ -3895,7 +3896,7 @@
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="152"/>
+      <c r="O5" s="154"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
@@ -4833,14 +4834,14 @@
     </row>
     <row r="18" spans="1:47" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="76"/>
-      <c r="B18" s="153" t="s">
+      <c r="B18" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="153"/>
-      <c r="D18" s="153"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="154"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="156"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -4919,12 +4920,12 @@
     </row>
     <row r="19" spans="1:47" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="76"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="154"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="156"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -5003,12 +5004,12 @@
     </row>
     <row r="20" spans="1:47" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="76"/>
-      <c r="B20" s="153"/>
-      <c r="C20" s="153"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="154"/>
+      <c r="B20" s="155"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="156"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -6216,11 +6217,11 @@
   <dimension ref="A1:BG36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P1" sqref="P1:T1"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:T1"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:T1"/>
-      <selection pane="bottomRight" activeCell="AU30" sqref="AU30"/>
+      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6247,61 +6248,61 @@
       <c r="G1" s="66"/>
       <c r="H1" s="40"/>
       <c r="I1" s="11"/>
-      <c r="J1" s="155" t="s">
+      <c r="J1" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="156"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="158"/>
       <c r="O1" s="13"/>
-      <c r="P1" s="157" t="s">
+      <c r="P1" s="159" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="157"/>
-      <c r="S1" s="157"/>
-      <c r="T1" s="158"/>
-      <c r="V1" s="151" t="s">
+      <c r="Q1" s="159"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="159"/>
+      <c r="T1" s="160"/>
+      <c r="V1" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="151"/>
-      <c r="AB1" s="151" t="s">
+      <c r="W1" s="153"/>
+      <c r="X1" s="153"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="153"/>
+      <c r="AA1" s="153"/>
+      <c r="AB1" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" s="151"/>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="151"/>
+      <c r="AC1" s="153"/>
+      <c r="AD1" s="153"/>
+      <c r="AE1" s="153"/>
+      <c r="AF1" s="153"/>
       <c r="AG1" s="5"/>
-      <c r="AH1" s="151" t="s">
+      <c r="AH1" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="AI1" s="151"/>
-      <c r="AJ1" s="151"/>
-      <c r="AK1" s="151"/>
-      <c r="AL1" s="151"/>
-      <c r="AM1" s="151"/>
-      <c r="AN1" s="151" t="s">
+      <c r="AI1" s="153"/>
+      <c r="AJ1" s="153"/>
+      <c r="AK1" s="153"/>
+      <c r="AL1" s="153"/>
+      <c r="AM1" s="153"/>
+      <c r="AN1" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="AO1" s="151"/>
-      <c r="AP1" s="151"/>
-      <c r="AQ1" s="151"/>
-      <c r="AR1" s="151"/>
-      <c r="AS1" s="151"/>
-      <c r="AT1" s="151" t="s">
+      <c r="AO1" s="153"/>
+      <c r="AP1" s="153"/>
+      <c r="AQ1" s="153"/>
+      <c r="AR1" s="153"/>
+      <c r="AS1" s="153"/>
+      <c r="AT1" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" s="151"/>
-      <c r="AV1" s="151"/>
-      <c r="AW1" s="151"/>
-      <c r="AX1" s="151"/>
-      <c r="AY1" s="151"/>
+      <c r="AU1" s="153"/>
+      <c r="AV1" s="153"/>
+      <c r="AW1" s="153"/>
+      <c r="AX1" s="153"/>
+      <c r="AY1" s="153"/>
       <c r="AZ1" s="126" t="s">
         <v>81</v>
       </c>
@@ -6515,7 +6516,7 @@
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="152" t="s">
+      <c r="O3" s="154" t="s">
         <v>10</v>
       </c>
       <c r="P3" s="9"/>
@@ -6569,7 +6570,7 @@
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="152"/>
+      <c r="O4" s="154"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
@@ -6618,7 +6619,7 @@
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="152"/>
+      <c r="O5" s="154"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
@@ -8214,14 +8215,14 @@
     </row>
     <row r="18" spans="1:59" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="76"/>
-      <c r="B18" s="153" t="s">
+      <c r="B18" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="153"/>
-      <c r="D18" s="153"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="154"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="156"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -8294,12 +8295,12 @@
     </row>
     <row r="19" spans="1:59" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="76"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="154"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="156"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -8373,12 +8374,12 @@
     </row>
     <row r="20" spans="1:59" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="76"/>
-      <c r="B20" s="153"/>
-      <c r="C20" s="153"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="154"/>
+      <c r="B20" s="155"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="156"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -8839,11 +8840,11 @@
         <v>34.8311127118644</v>
       </c>
       <c r="AZ24" s="127">
-        <f t="shared" ref="AZ24:AZ26" si="12">AC24+AO24+AU24</f>
+        <f t="shared" ref="AZ24:AZ25" si="12">AC24+AO24+AU24</f>
         <v>43.499490627118647</v>
       </c>
       <c r="BA24" s="127">
-        <f t="shared" ref="BA24:BA26" si="13">AD24+AP24+AV24</f>
+        <f t="shared" ref="BA24:BA25" si="13">AD24+AP24+AV24</f>
         <v>40.412188423728836</v>
       </c>
       <c r="BB24" s="127">
@@ -9197,42 +9198,120 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="21"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="23"/>
-      <c r="AA27" s="3"/>
+      <c r="O27" s="54">
+        <v>1</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" ref="P27:P28" si="17">($F$5*$O27*AC27+$G$5+$V27-W27)/(AC27*$O27)</f>
+        <v>1.1034034643807078</v>
+      </c>
+      <c r="Q27" s="10">
+        <f t="shared" ref="Q27:Q28" si="18">($F$5*$O27*AD27+$G$5+$V27-X27)/(AD27*$O27)</f>
+        <v>1.1436800145734289</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" ref="R27:R28" si="19">($F$7*$O27*AE27+$G$7+$V27-Y27)/(AE27*$O27)</f>
+        <v>1.2356577378274594</v>
+      </c>
+      <c r="S27" s="10">
+        <f t="shared" ref="S27:S28" si="20">($F$7*$O27*AF27+$G$7+$V27-Z27)/(AF27*$O27)</f>
+        <v>1.2575869675897686</v>
+      </c>
+      <c r="T27" s="10">
+        <f t="shared" ref="T27:T28" si="21">($F$7*$O27*AG27+$G$7+$V27-AA27)/(AG27*$O27)</f>
+        <v>1.2557232075634015</v>
+      </c>
+      <c r="U27" s="21">
+        <v>350</v>
+      </c>
+      <c r="V27">
+        <v>31.311797050847499</v>
+      </c>
+      <c r="W27">
+        <v>28.073638881355901</v>
+      </c>
+      <c r="X27">
+        <v>27.411908372881399</v>
+      </c>
+      <c r="Y27">
+        <v>26.9644646101695</v>
+      </c>
+      <c r="Z27">
+        <v>26.869517847457601</v>
+      </c>
+      <c r="AA27">
+        <v>26.802268016949199</v>
+      </c>
       <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="3"/>
-      <c r="AH27" s="3"/>
-      <c r="AI27" s="3"/>
-      <c r="AJ27" s="3"/>
-      <c r="AK27" s="3"/>
-      <c r="AL27" s="3"/>
-      <c r="AM27" s="3"/>
-      <c r="AN27" s="3"/>
-      <c r="AO27" s="3"/>
-      <c r="AP27" s="3"/>
-      <c r="AQ27" s="3"/>
-      <c r="AR27" s="3"/>
-      <c r="AS27" s="23"/>
-      <c r="AT27" s="23"/>
-      <c r="AU27" s="23"/>
-      <c r="AV27" s="3"/>
-      <c r="AW27" s="3"/>
-      <c r="AX27" s="3"/>
-      <c r="AY27" s="43"/>
+      <c r="AC27">
+        <v>5.7495912542372896</v>
+      </c>
+      <c r="AD27">
+        <v>6.4666803559322004</v>
+      </c>
+      <c r="AE27">
+        <v>6.5383716610169502</v>
+      </c>
+      <c r="AF27">
+        <v>6.4693598305084796</v>
+      </c>
+      <c r="AG27">
+        <v>6.5826609661016899</v>
+      </c>
+      <c r="AH27">
+        <v>0.417039983050847</v>
+      </c>
+      <c r="AI27">
+        <v>50</v>
+      </c>
+      <c r="AJ27">
+        <v>50.317943881355902</v>
+      </c>
+      <c r="AK27">
+        <v>50.297100033898303</v>
+      </c>
+      <c r="AL27">
+        <v>50.320657932203403</v>
+      </c>
+      <c r="AM27">
+        <v>50.346781033898303</v>
+      </c>
+      <c r="AN27">
+        <v>1.7155154576271201</v>
+      </c>
+      <c r="AO27">
+        <v>4.37105662711864</v>
+      </c>
+      <c r="AP27">
+        <v>5.5969201186440696</v>
+      </c>
+      <c r="AQ27">
+        <v>6.4398073559322002</v>
+      </c>
+      <c r="AR27">
+        <v>5.5831311864406796</v>
+      </c>
+      <c r="AS27">
+        <v>5.0152269491525399</v>
+      </c>
+      <c r="AT27">
+        <v>-0.20782644067796599</v>
+      </c>
+      <c r="AU27">
+        <v>29.1245321864407</v>
+      </c>
+      <c r="AV27">
+        <v>31.5234799152542</v>
+      </c>
+      <c r="AW27">
+        <v>29.944250118644099</v>
+      </c>
+      <c r="AX27">
+        <v>31.5915691694915</v>
+      </c>
+      <c r="AY27">
+        <v>34.1691104745763</v>
+      </c>
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
@@ -9253,42 +9332,120 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="17"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3"/>
-      <c r="AJ28" s="3"/>
-      <c r="AK28" s="3"/>
-      <c r="AL28" s="3"/>
-      <c r="AM28" s="3"/>
-      <c r="AN28" s="3"/>
-      <c r="AO28" s="3"/>
-      <c r="AP28" s="3"/>
-      <c r="AQ28" s="3"/>
-      <c r="AR28" s="3"/>
-      <c r="AS28" s="23"/>
-      <c r="AT28" s="23"/>
-      <c r="AU28" s="23"/>
-      <c r="AV28" s="3"/>
-      <c r="AW28" s="3"/>
-      <c r="AX28" s="3"/>
-      <c r="AY28" s="43"/>
+      <c r="O28" s="54">
+        <v>1</v>
+      </c>
+      <c r="P28" s="10">
+        <f t="shared" si="17"/>
+        <v>1.2071767085760186</v>
+      </c>
+      <c r="Q28" s="10">
+        <f t="shared" si="18"/>
+        <v>1.2216764461347485</v>
+      </c>
+      <c r="R28" s="10">
+        <f t="shared" si="19"/>
+        <v>1.2225681389143066</v>
+      </c>
+      <c r="S28" s="10">
+        <f t="shared" si="20"/>
+        <v>1.2540670733619954</v>
+      </c>
+      <c r="T28" s="10">
+        <f t="shared" si="21"/>
+        <v>1.2664450407044681</v>
+      </c>
+      <c r="U28" s="19">
+        <v>400</v>
+      </c>
+      <c r="V28">
+        <v>38.316713796610202</v>
+      </c>
+      <c r="W28">
+        <v>33.771166406779699</v>
+      </c>
+      <c r="X28">
+        <v>33.838299288135602</v>
+      </c>
+      <c r="Y28">
+        <v>34.046688677966102</v>
+      </c>
+      <c r="Z28">
+        <v>33.805295152542399</v>
+      </c>
+      <c r="AA28">
+        <v>33.559552084745803</v>
+      </c>
+      <c r="AB28"/>
+      <c r="AC28">
+        <v>6.8210056271186499</v>
+      </c>
+      <c r="AD28">
+        <v>6.5760652711864402</v>
+      </c>
+      <c r="AE28">
+        <v>6.5507849491525398</v>
+      </c>
+      <c r="AF28">
+        <v>6.6009785423728804</v>
+      </c>
+      <c r="AG28">
+        <v>6.8317914406779696</v>
+      </c>
+      <c r="AH28">
+        <v>0.38517630508474598</v>
+      </c>
+      <c r="AI28">
+        <v>50.113298322033899</v>
+      </c>
+      <c r="AJ28">
+        <v>50.146093288135603</v>
+      </c>
+      <c r="AK28">
+        <v>50.1774593559322</v>
+      </c>
+      <c r="AL28">
+        <v>50.2200156440678</v>
+      </c>
+      <c r="AM28">
+        <v>50.231822644067798</v>
+      </c>
+      <c r="AN28">
+        <v>1.08728720338983</v>
+      </c>
+      <c r="AO28">
+        <v>4.01442493220339</v>
+      </c>
+      <c r="AP28">
+        <v>4.2086245762711902</v>
+      </c>
+      <c r="AQ28">
+        <v>4.4671189322033902</v>
+      </c>
+      <c r="AR28">
+        <v>3.6270731186440699</v>
+      </c>
+      <c r="AS28">
+        <v>3.3400373050847501</v>
+      </c>
+      <c r="AT28">
+        <v>-0.34793071186440699</v>
+      </c>
+      <c r="AU28">
+        <v>33.824354322033898</v>
+      </c>
+      <c r="AV28">
+        <v>30.652908949152501</v>
+      </c>
+      <c r="AW28">
+        <v>28.9936278983051</v>
+      </c>
+      <c r="AX28">
+        <v>30.568513559322</v>
+      </c>
+      <c r="AY28">
+        <v>33.689012762711798</v>
+      </c>
       <c r="AZ28" s="7">
         <f>AVERAGE(AZ21:BD26)</f>
         <v>41.474236829661017</v>
@@ -9319,13 +9476,18 @@
       <c r="S29" s="10"/>
       <c r="T29" s="8"/>
       <c r="U29" s="17"/>
+      <c r="V29" s="24" t="s">
+        <v>102</v>
+      </c>
       <c r="W29" s="23"/>
       <c r="X29" s="23"/>
       <c r="Y29" s="23"/>
       <c r="Z29" s="23"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
+      <c r="AC29" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
@@ -9379,17 +9541,13 @@
       <c r="S30" s="10"/>
       <c r="U30" s="21"/>
       <c r="V30" s="23"/>
-      <c r="W30" s="149" t="s">
-        <v>35</v>
-      </c>
+      <c r="W30" s="149"/>
       <c r="X30" s="149"/>
       <c r="Y30" s="149"/>
       <c r="Z30" s="50"/>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
-      <c r="AC30" s="49" t="s">
-        <v>92</v>
-      </c>
+      <c r="AC30" s="49"/>
       <c r="AD30" s="149"/>
       <c r="AE30" s="149"/>
       <c r="AF30" s="149"/>
@@ -9426,64 +9584,68 @@
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="16"/>
+      <c r="V31" s="3">
+        <f>V6-V23</f>
+        <v>-8.1195525423719772E-2</v>
+      </c>
       <c r="W31" s="3">
-        <f>$V23-W23</f>
-        <v>2.452941152542369</v>
+        <f t="shared" ref="W31:AA31" si="22">W6-W23</f>
+        <v>-9.3816644067800326E-2</v>
       </c>
       <c r="X31" s="3">
-        <f t="shared" ref="X31:AA31" si="17">$V23-X23</f>
-        <v>2.6010580847457589</v>
+        <f t="shared" si="22"/>
+        <v>-0.1795770677966102</v>
       </c>
       <c r="Y31" s="3">
-        <f t="shared" si="17"/>
-        <v>2.548473491525419</v>
+        <f t="shared" si="22"/>
+        <v>-0.22315588135593067</v>
       </c>
       <c r="Z31" s="3">
-        <f t="shared" si="17"/>
-        <v>2.597678305084739</v>
+        <f t="shared" si="22"/>
+        <v>-0.21537164406780018</v>
       </c>
       <c r="AA31" s="3">
-        <f t="shared" si="17"/>
-        <v>2.716324305084739</v>
-      </c>
-      <c r="AC31" s="103">
-        <f>AC23/($V23-W23)</f>
-        <v>2.0948519718231329</v>
-      </c>
-      <c r="AD31" s="103">
-        <f t="shared" ref="AD31:AD36" si="18">AD23/($V23-X23)</f>
-        <v>1.9729146405328297</v>
-      </c>
-      <c r="AE31" s="103">
-        <f t="shared" ref="AE31:AE36" si="19">AE23/($V23-Y23)</f>
-        <v>2.0469561918408945</v>
-      </c>
-      <c r="AF31" s="103">
-        <f t="shared" ref="AF31:AF36" si="20">AF23/($V23-Z23)</f>
-        <v>1.9734822137786452</v>
-      </c>
-      <c r="AG31" s="103">
-        <f t="shared" ref="AG31:AG36" si="21">AG23/($V23-AA23)</f>
-        <v>1.8985089421750663</v>
+        <f t="shared" si="22"/>
+        <v>-7.7968254237290147E-2</v>
+      </c>
+      <c r="AC31" s="3">
+        <f t="shared" ref="AC31:AG31" si="23">AC6-AC23</f>
+        <v>-0.21063420338983008</v>
+      </c>
+      <c r="AD31" s="3">
+        <f t="shared" si="23"/>
+        <v>-4.7023152542379876E-2</v>
+      </c>
+      <c r="AE31" s="3">
+        <f t="shared" si="23"/>
+        <v>6.430640677965993E-2</v>
+      </c>
+      <c r="AF31" s="3">
+        <f t="shared" si="23"/>
+        <v>-4.3215000000000003E-2</v>
+      </c>
+      <c r="AG31" s="3">
+        <f t="shared" si="23"/>
+        <v>-0.24093152542373009</v>
       </c>
       <c r="AO31" s="3">
         <f>AO6-AO23-$AN6-$AN23</f>
         <v>-2.4999333559322019</v>
       </c>
       <c r="AP31" s="3">
-        <f t="shared" ref="AP31:AS31" si="22">AP6-AP23-$AN6-$AN23</f>
+        <f t="shared" ref="AP31:AS31" si="24">AP6-AP23-$AN6-$AN23</f>
         <v>-2.8182562203389718</v>
       </c>
       <c r="AQ31" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-2.6829300677966019</v>
       </c>
       <c r="AR31" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-2.7868058813559324</v>
       </c>
       <c r="AS31" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-2.7031003898305017</v>
       </c>
       <c r="AU31" s="3">
@@ -9491,19 +9653,19 @@
         <v>-3.2759241186441304</v>
       </c>
       <c r="AV31" s="3">
-        <f t="shared" ref="AV31:AY31" si="23">AV6-AV23-$AT6-$AT23</f>
+        <f t="shared" ref="AV31:AY31" si="25">AV6-AV23-$AT6-$AT23</f>
         <v>-2.3304033220339266</v>
       </c>
       <c r="AW31" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-0.87261128813552991</v>
       </c>
       <c r="AX31" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-1.7797748305084327</v>
       </c>
       <c r="AY31" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-2.6373159152542338</v>
       </c>
     </row>
@@ -9515,85 +9677,88 @@
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
-      <c r="V32" s="3"/>
+      <c r="V32" s="3">
+        <f t="shared" ref="V32:AA36" si="26">V7-V24</f>
+        <v>-7.8203762711899216E-2</v>
+      </c>
       <c r="W32" s="3">
-        <f t="shared" ref="W32:AA32" si="24">$V24-W24</f>
-        <v>2.9156563898305006</v>
+        <f t="shared" si="26"/>
+        <v>-5.1834067796599825E-2</v>
       </c>
       <c r="X32" s="3">
-        <f t="shared" si="24"/>
-        <v>3.0790164406780001</v>
+        <f t="shared" si="26"/>
+        <v>-8.5200288135599322E-2</v>
       </c>
       <c r="Y32" s="3">
-        <f t="shared" si="24"/>
-        <v>2.9900789830508998</v>
+        <f t="shared" si="26"/>
+        <v>-0.25269255932199997</v>
       </c>
       <c r="Z32" s="3">
-        <f t="shared" si="24"/>
-        <v>3.0309928135592994</v>
+        <f t="shared" si="26"/>
+        <v>-0.22592611864410017</v>
       </c>
       <c r="AA32" s="3">
-        <f t="shared" si="24"/>
-        <v>3.1245765593219996</v>
-      </c>
-      <c r="AC32" s="103">
-        <f t="shared" ref="AC32:AC36" si="25">AC24/($V24-W24)</f>
-        <v>1.8897391462748665</v>
-      </c>
-      <c r="AD32" s="103">
-        <f t="shared" si="18"/>
-        <v>1.7796984861498317</v>
-      </c>
-      <c r="AE32" s="103">
-        <f t="shared" si="19"/>
-        <v>1.8675162597031014</v>
-      </c>
-      <c r="AF32" s="103">
-        <f t="shared" si="20"/>
-        <v>1.8085761360645314</v>
-      </c>
-      <c r="AG32" s="103">
-        <f t="shared" si="21"/>
-        <v>1.7659807484585355</v>
+        <f t="shared" si="26"/>
+        <v>-0.1408221864407011</v>
+      </c>
+      <c r="AC32" s="3">
+        <f t="shared" ref="AC32:AG32" si="27">AC7-AC24</f>
+        <v>-0.26633793220339008</v>
+      </c>
+      <c r="AD32" s="3">
+        <f t="shared" si="27"/>
+        <v>-4.4893728813549139E-2</v>
+      </c>
+      <c r="AE32" s="3">
+        <f t="shared" si="27"/>
+        <v>5.8880186440680049E-2</v>
+      </c>
+      <c r="AF32" s="3">
+        <f t="shared" si="27"/>
+        <v>-5.7732508474570565E-2</v>
+      </c>
+      <c r="AG32" s="3">
+        <f t="shared" si="27"/>
+        <v>-0.27108018644068022</v>
       </c>
       <c r="AO32" s="3">
-        <f t="shared" ref="AO32:AS34" si="26">AO7-AO24-$AN7-$AN24</f>
+        <f t="shared" ref="AO32:AS34" si="28">AO7-AO24-$AN7-$AN24</f>
         <v>5.4220440677966317E-2</v>
       </c>
       <c r="AP32" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.15571847457627658</v>
       </c>
       <c r="AQ32" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.16655696610169662</v>
       </c>
       <c r="AR32" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.32857764406779638</v>
       </c>
       <c r="AS32" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-4.1684745762732983E-3</v>
       </c>
       <c r="AU32" s="3">
-        <f t="shared" ref="AU32:AY34" si="27">AU7-AU24-$AT7-$AT24</f>
+        <f t="shared" ref="AU32:AY34" si="29">AU7-AU24-$AT7-$AT24</f>
         <v>-1.6678571186440876</v>
       </c>
       <c r="AV32" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-0.37602171186438726</v>
       </c>
       <c r="AW32" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.4738858474576183</v>
       </c>
       <c r="AX32" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-0.76338793220348367</v>
       </c>
       <c r="AY32" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-1.5018747288135841</v>
       </c>
     </row>
@@ -9601,195 +9766,342 @@
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
-      <c r="V33" s="3"/>
+      <c r="V33" s="3">
+        <f t="shared" si="26"/>
+        <v>-5.9792728813498286E-2</v>
+      </c>
       <c r="W33" s="3">
-        <f t="shared" ref="W33:AA33" si="28">$V25-W25</f>
-        <v>3.4293049830508</v>
+        <f t="shared" si="26"/>
+        <v>-0.16450808474579937</v>
       </c>
       <c r="X33" s="3">
+        <f t="shared" si="26"/>
+        <v>-0.23636993220340052</v>
+      </c>
+      <c r="Y33" s="3">
+        <f t="shared" si="26"/>
+        <v>-0.21480613559320005</v>
+      </c>
+      <c r="Z33" s="3">
+        <f t="shared" si="26"/>
+        <v>-0.14815430508469873</v>
+      </c>
+      <c r="AA33" s="3">
+        <f t="shared" si="26"/>
+        <v>-0.14551308474580082</v>
+      </c>
+      <c r="AC33" s="3">
+        <f t="shared" ref="AC33:AG33" si="30">AC8-AC25</f>
+        <v>-0.64608522033898019</v>
+      </c>
+      <c r="AD33" s="3">
+        <f t="shared" si="30"/>
+        <v>-6.9545288135590688E-2</v>
+      </c>
+      <c r="AE33" s="3">
+        <f t="shared" si="30"/>
+        <v>-2.9977118644106682E-3</v>
+      </c>
+      <c r="AF33" s="3">
+        <f t="shared" si="30"/>
+        <v>-9.3551661016950227E-2</v>
+      </c>
+      <c r="AG33" s="3">
+        <f t="shared" si="30"/>
+        <v>-0.30658993220340047</v>
+      </c>
+      <c r="AO33" s="3">
         <f t="shared" si="28"/>
-        <v>3.6997901525422989</v>
-      </c>
-      <c r="Y33" s="3">
+        <v>2.3295221525423697</v>
+      </c>
+      <c r="AP33" s="3">
         <f t="shared" si="28"/>
-        <v>3.8051238305083999</v>
-      </c>
-      <c r="Z33" s="3">
+        <v>2.2686888135593195</v>
+      </c>
+      <c r="AQ33" s="3">
         <f t="shared" si="28"/>
-        <v>3.8358236779661006</v>
-      </c>
-      <c r="AA33" s="3">
+        <v>2.8673883559321998</v>
+      </c>
+      <c r="AR33" s="3">
         <f t="shared" si="28"/>
-        <v>3.6807815084744995</v>
-      </c>
-      <c r="AC33" s="3">
-        <f t="shared" si="25"/>
-        <v>1.7283400717151032</v>
-      </c>
-      <c r="AD33" s="3">
-        <f t="shared" si="18"/>
-        <v>1.6061336030240305</v>
-      </c>
-      <c r="AE33" s="3">
-        <f t="shared" si="19"/>
-        <v>1.6044372435087912</v>
-      </c>
-      <c r="AF33" s="3">
-        <f t="shared" si="20"/>
-        <v>1.5522172183052698</v>
-      </c>
-      <c r="AG33" s="3">
-        <f t="shared" si="21"/>
-        <v>1.6110625484384746</v>
-      </c>
-      <c r="AO33" s="3">
+        <v>3.0205090508474601</v>
+      </c>
+      <c r="AS33" s="52">
+        <f t="shared" si="28"/>
+        <v>3.4400099661016901</v>
+      </c>
+      <c r="AU33" s="3">
+        <f t="shared" si="29"/>
+        <v>-0.21832776271190002</v>
+      </c>
+      <c r="AV33" s="3">
+        <f t="shared" si="29"/>
+        <v>0.90203227118639728</v>
+      </c>
+      <c r="AW33" s="3">
+        <f t="shared" si="29"/>
+        <v>1.8831354067796984</v>
+      </c>
+      <c r="AX33" s="3">
+        <f t="shared" si="29"/>
+        <v>0.72467289830499948</v>
+      </c>
+      <c r="AY33" s="3">
+        <f t="shared" si="29"/>
+        <v>6.6090847457982438E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="11:51" x14ac:dyDescent="0.25">
+      <c r="V34" s="3">
         <f t="shared" si="26"/>
-        <v>2.3295221525423697</v>
-      </c>
-      <c r="AP33" s="3">
+        <v>2.768050847500092E-3</v>
+      </c>
+      <c r="W34" s="3">
         <f t="shared" si="26"/>
-        <v>2.2686888135593195</v>
-      </c>
-      <c r="AQ33" s="3">
+        <v>3.8490457627098351E-2</v>
+      </c>
+      <c r="X34" s="3">
         <f t="shared" si="26"/>
-        <v>2.8673883559321998</v>
-      </c>
-      <c r="AR33" s="3">
+        <v>-7.9334915254989369E-3</v>
+      </c>
+      <c r="Y34" s="3">
         <f t="shared" si="26"/>
-        <v>3.0205090508474601</v>
-      </c>
-      <c r="AS33" s="52">
+        <v>-0.33269064406779947</v>
+      </c>
+      <c r="Z34" s="3">
         <f t="shared" si="26"/>
-        <v>3.4400099661016901</v>
-      </c>
-      <c r="AU33" s="3">
-        <f t="shared" si="27"/>
-        <v>-0.21832776271190002</v>
-      </c>
-      <c r="AV33" s="3">
-        <f t="shared" si="27"/>
-        <v>0.90203227118639728</v>
-      </c>
-      <c r="AW33" s="3">
-        <f t="shared" si="27"/>
-        <v>1.8831354067796984</v>
-      </c>
-      <c r="AX33" s="3">
-        <f t="shared" si="27"/>
-        <v>0.72467289830499948</v>
-      </c>
-      <c r="AY33" s="3">
-        <f t="shared" si="27"/>
-        <v>6.6090847457982438E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="11:51" x14ac:dyDescent="0.25">
-      <c r="V34" s="3"/>
-      <c r="W34" s="3">
-        <f t="shared" ref="W34:AA34" si="29">$V26-W26</f>
-        <v>4.1459311016948988</v>
-      </c>
-      <c r="X34" s="3">
+        <v>-0.26294486440680132</v>
+      </c>
+      <c r="AA34" s="3">
+        <f t="shared" si="26"/>
+        <v>-8.6055016949202923E-2</v>
+      </c>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3">
+        <f t="shared" ref="AE34:AG34" si="31">AE9-AE26</f>
+        <v>-0.28303106779660947</v>
+      </c>
+      <c r="AF34" s="3">
+        <f t="shared" si="31"/>
+        <v>-0.33502093220339013</v>
+      </c>
+      <c r="AG34" s="3">
+        <f t="shared" si="31"/>
+        <v>-0.65978835593220975</v>
+      </c>
+      <c r="AO34" s="3">
+        <f t="shared" si="28"/>
+        <v>2.9222351355932177</v>
+      </c>
+      <c r="AP34" s="3">
+        <f t="shared" si="28"/>
+        <v>3.0383696949152483</v>
+      </c>
+      <c r="AQ34" s="3">
+        <f t="shared" si="28"/>
+        <v>2.0532171186440671</v>
+      </c>
+      <c r="AR34" s="3">
+        <f t="shared" si="28"/>
+        <v>1.5777807457627075</v>
+      </c>
+      <c r="AS34" s="3">
+        <f t="shared" si="28"/>
+        <v>1.5079572372881371</v>
+      </c>
+      <c r="AU34" s="3">
         <f t="shared" si="29"/>
-        <v>4.5750358305084013</v>
-      </c>
-      <c r="Y34" s="3">
+        <v>-3.3656101694917284E-2</v>
+      </c>
+      <c r="AV34" s="3">
         <f t="shared" si="29"/>
-        <v>4.6137804915254002</v>
-      </c>
-      <c r="Z34" s="3">
+        <v>1.1854520169491802</v>
+      </c>
+      <c r="AW34" s="3">
         <f t="shared" si="29"/>
-        <v>4.3959557457626985</v>
-      </c>
-      <c r="AA34" s="3">
+        <v>0.88016225423727934</v>
+      </c>
+      <c r="AX34" s="3">
         <f t="shared" si="29"/>
-        <v>4.2731501355931982</v>
-      </c>
-      <c r="AC34" s="3">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AD34" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AE34" s="3">
-        <f t="shared" si="19"/>
-        <v>1.4397872124050961</v>
-      </c>
-      <c r="AF34" s="3">
-        <f t="shared" si="20"/>
-        <v>1.4650828153916193</v>
-      </c>
-      <c r="AG34" s="3">
-        <f t="shared" si="21"/>
-        <v>1.4881422770320232</v>
-      </c>
-      <c r="AO34" s="3">
+        <v>-0.18944754237291517</v>
+      </c>
+      <c r="AY34" s="3">
+        <f t="shared" si="29"/>
+        <v>-0.66004837288141749</v>
+      </c>
+    </row>
+    <row r="35" spans="11:51" x14ac:dyDescent="0.25">
+      <c r="V35" s="3">
         <f t="shared" si="26"/>
-        <v>2.9222351355932177</v>
-      </c>
-      <c r="AP34" s="3">
+        <v>-5.9371271186499541E-2</v>
+      </c>
+      <c r="W35" s="125">
+        <f>W10-W27</f>
+        <v>-1.1008086271185995</v>
+      </c>
+      <c r="X35" s="3">
         <f t="shared" si="26"/>
-        <v>3.0383696949152483</v>
-      </c>
-      <c r="AQ34" s="3">
+        <v>-0.5716925593220985</v>
+      </c>
+      <c r="Y35" s="3">
         <f t="shared" si="26"/>
-        <v>2.0532171186440671</v>
-      </c>
-      <c r="AR34" s="3">
+        <v>-0.19847566101699954</v>
+      </c>
+      <c r="Z35" s="3">
         <f t="shared" si="26"/>
-        <v>1.5777807457627075</v>
-      </c>
-      <c r="AS34" s="3">
+        <v>-0.1083893389830024</v>
+      </c>
+      <c r="AA35" s="3">
         <f t="shared" si="26"/>
-        <v>1.5079572372881371</v>
-      </c>
-      <c r="AU34" s="3">
-        <f t="shared" si="27"/>
-        <v>-3.3656101694917284E-2</v>
-      </c>
-      <c r="AV34" s="3">
-        <f t="shared" si="27"/>
-        <v>1.1854520169491802</v>
-      </c>
-      <c r="AW34" s="3">
-        <f t="shared" si="27"/>
-        <v>0.88016225423727934</v>
-      </c>
-      <c r="AX34" s="3">
-        <f t="shared" si="27"/>
-        <v>-0.18944754237291517</v>
-      </c>
-      <c r="AY34" s="3">
-        <f t="shared" si="27"/>
-        <v>-0.66004837288141749</v>
-      </c>
-    </row>
-    <row r="35" spans="11:51" x14ac:dyDescent="0.25">
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
-      <c r="AG35" s="3"/>
+        <v>-0.14120374576279815</v>
+      </c>
+      <c r="AC35" s="125">
+        <f t="shared" ref="AC35:AG35" si="32">AC10-AC27</f>
+        <v>-0.83355679661016957</v>
+      </c>
+      <c r="AD35" s="3">
+        <f t="shared" si="32"/>
+        <v>-0.26977172881356015</v>
+      </c>
+      <c r="AE35" s="3">
+        <f t="shared" si="32"/>
+        <v>-0.18528533898306065</v>
+      </c>
+      <c r="AF35" s="3">
+        <f t="shared" si="32"/>
+        <v>-0.28513047457627927</v>
+      </c>
+      <c r="AG35" s="3">
+        <f t="shared" si="32"/>
+        <v>-0.65561472881355964</v>
+      </c>
+      <c r="AO35" s="3">
+        <f t="shared" ref="AO35:AS35" si="33">AO10-AO27-$AN10-$AN27</f>
+        <v>-3.1460637966101679</v>
+      </c>
+      <c r="AP35" s="3">
+        <f t="shared" si="33"/>
+        <v>-4.1082100847457674</v>
+      </c>
+      <c r="AQ35" s="3">
+        <f t="shared" si="33"/>
+        <v>-4.5339762203389782</v>
+      </c>
+      <c r="AR35" s="3">
+        <f t="shared" si="33"/>
+        <v>-4.4134043220338981</v>
+      </c>
+      <c r="AS35" s="3">
+        <f t="shared" si="33"/>
+        <v>-4.2553877457627074</v>
+      </c>
+      <c r="AU35" s="3">
+        <f t="shared" ref="AU35:AY35" si="34">AU10-AU27-$AT10-$AT27</f>
+        <v>2.5771023898305172</v>
+      </c>
+      <c r="AV35" s="3">
+        <f t="shared" si="34"/>
+        <v>-1.7867067796609863</v>
+      </c>
+      <c r="AW35" s="3">
+        <f t="shared" si="34"/>
+        <v>-1.3585560338983858</v>
+      </c>
+      <c r="AX35" s="3">
+        <f t="shared" si="34"/>
+        <v>-2.0462954745762838</v>
+      </c>
+      <c r="AY35" s="3">
+        <f t="shared" si="34"/>
+        <v>-2.8282360169491847</v>
+      </c>
     </row>
     <row r="36" spans="11:51" x14ac:dyDescent="0.25">
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-      <c r="AC36" s="3"/>
-      <c r="AD36" s="3"/>
-      <c r="AE36" s="3"/>
-      <c r="AF36" s="3"/>
-      <c r="AG36" s="3"/>
+      <c r="V36" s="3">
+        <f t="shared" si="26"/>
+        <v>-5.8018118644099559E-2</v>
+      </c>
+      <c r="W36" s="3">
+        <f t="shared" si="26"/>
+        <v>-1.8571237288199427E-2</v>
+      </c>
+      <c r="X36" s="3">
+        <f t="shared" si="26"/>
+        <v>-2.8629000000002236E-2</v>
+      </c>
+      <c r="Y36" s="3">
+        <f t="shared" si="26"/>
+        <v>-0.46460769491520182</v>
+      </c>
+      <c r="Z36" s="3">
+        <f t="shared" si="26"/>
+        <v>-2.8903372881401879E-2</v>
+      </c>
+      <c r="AA36" s="3">
+        <f t="shared" si="26"/>
+        <v>-8.2569457627101883E-2</v>
+      </c>
+      <c r="AC36" s="3">
+        <f t="shared" ref="AC36:AG36" si="35">AC11-AC28</f>
+        <v>-0.66516277966102955</v>
+      </c>
+      <c r="AD36" s="3">
+        <f t="shared" si="35"/>
+        <v>-0.26015969491525048</v>
+      </c>
+      <c r="AE36" s="3">
+        <f t="shared" si="35"/>
+        <v>-0.16328644067796017</v>
+      </c>
+      <c r="AF36" s="3">
+        <f t="shared" si="35"/>
+        <v>-0.2872252711864407</v>
+      </c>
+      <c r="AG36" s="3">
+        <f t="shared" si="35"/>
+        <v>-0.68975411864406944</v>
+      </c>
+      <c r="AO36" s="3">
+        <f t="shared" ref="AO36:AS36" si="36">AO11-AO28-$AN11-$AN28</f>
+        <v>-2.28063006779661</v>
+      </c>
+      <c r="AP36" s="3">
+        <f t="shared" si="36"/>
+        <v>-2.02592801694915</v>
+      </c>
+      <c r="AQ36" s="3">
+        <f t="shared" si="36"/>
+        <v>-2.0368615084745803</v>
+      </c>
+      <c r="AR36" s="3">
+        <f t="shared" si="36"/>
+        <v>-1.9091626779661</v>
+      </c>
+      <c r="AS36" s="3">
+        <f t="shared" si="36"/>
+        <v>-2.1610085932203398</v>
+      </c>
+      <c r="AU36" s="3">
+        <f t="shared" ref="AU36:AY36" si="37">AU11-AU28-$AT11-$AT28</f>
+        <v>-2.4450068474575892</v>
+      </c>
+      <c r="AV36" s="3">
+        <f t="shared" si="37"/>
+        <v>-1.0930516440677931</v>
+      </c>
+      <c r="AW36" s="3">
+        <f t="shared" si="37"/>
+        <v>-0.47471189830508947</v>
+      </c>
+      <c r="AX36" s="3">
+        <f t="shared" si="37"/>
+        <v>-1.3507333220338904</v>
+      </c>
+      <c r="AY36" s="3">
+        <f t="shared" si="37"/>
+        <v>-2.74932998305079</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9808,7 +10120,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q27:S29">
+  <conditionalFormatting sqref="Q29:S29">
     <cfRule type="cellIs" dxfId="18" priority="28" operator="greaterThan">
       <formula>1.3</formula>
     </cfRule>
@@ -9829,7 +10141,7 @@
       <formula>3.19</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P27:T29">
+  <conditionalFormatting sqref="P29:T29">
     <cfRule type="cellIs" dxfId="13" priority="23" operator="greaterThan">
       <formula>1.3</formula>
     </cfRule>
@@ -9844,11 +10156,11 @@
   <dimension ref="A1:AU86"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P1" sqref="P1:T1"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:T1"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:T1"/>
-      <selection pane="bottomRight" activeCell="Q71" sqref="Q71"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9876,29 +10188,29 @@
       <c r="G1" s="59"/>
       <c r="H1" s="40"/>
       <c r="I1" s="11"/>
-      <c r="J1" s="155" t="s">
+      <c r="J1" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="156"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="158"/>
       <c r="O1" s="13"/>
-      <c r="P1" s="157" t="s">
+      <c r="P1" s="159" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="157"/>
-      <c r="S1" s="157"/>
-      <c r="T1" s="158"/>
-      <c r="V1" s="151" t="s">
+      <c r="Q1" s="159"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="159"/>
+      <c r="T1" s="160"/>
+      <c r="V1" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="151"/>
+      <c r="W1" s="153"/>
+      <c r="X1" s="153"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="153"/>
+      <c r="AA1" s="153"/>
       <c r="AB1" s="5" t="s">
         <v>18</v>
       </c>
@@ -9906,27 +10218,27 @@
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
       <c r="AF1" s="5"/>
-      <c r="AG1" s="151" t="s">
+      <c r="AG1" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="151"/>
-      <c r="AJ1" s="151"/>
-      <c r="AK1" s="151"/>
-      <c r="AL1" s="151" t="s">
+      <c r="AH1" s="153"/>
+      <c r="AI1" s="153"/>
+      <c r="AJ1" s="153"/>
+      <c r="AK1" s="153"/>
+      <c r="AL1" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="AM1" s="151"/>
-      <c r="AN1" s="151"/>
-      <c r="AO1" s="151"/>
-      <c r="AP1" s="151"/>
-      <c r="AQ1" s="151" t="s">
+      <c r="AM1" s="153"/>
+      <c r="AN1" s="153"/>
+      <c r="AO1" s="153"/>
+      <c r="AP1" s="153"/>
+      <c r="AQ1" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="151"/>
-      <c r="AS1" s="151"/>
-      <c r="AT1" s="151"/>
-      <c r="AU1" s="151"/>
+      <c r="AR1" s="153"/>
+      <c r="AS1" s="153"/>
+      <c r="AT1" s="153"/>
+      <c r="AU1" s="153"/>
     </row>
     <row r="2" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -10099,7 +10411,7 @@
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="152" t="s">
+      <c r="O3" s="154" t="s">
         <v>10</v>
       </c>
       <c r="P3" s="9"/>
@@ -10143,7 +10455,7 @@
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="152"/>
+      <c r="O4" s="154"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
@@ -10170,7 +10482,7 @@
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="152"/>
+      <c r="O5" s="154"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
@@ -10200,10 +10512,6 @@
         <f>'DC-h2-ipb2-28b'!P7</f>
         <v>0</v>
       </c>
-      <c r="H6" s="1">
-        <f>U6/100</f>
-        <v>1.5</v>
-      </c>
       <c r="J6" s="3">
         <f>$V6-W6-AB6+$F$3*AB6+$G$3</f>
         <v>1.1053762525517601</v>
@@ -10358,28 +10666,24 @@
         <f>'DC-h2-ipb2-28b'!P8</f>
         <v>-4.6776203432279395E-3</v>
       </c>
-      <c r="H7" s="1">
-        <f t="shared" ref="H7:H11" si="3">U7/100</f>
-        <v>2</v>
-      </c>
       <c r="J7" s="3">
         <f>$V7-W7-AB7+$F$4*AB7+$G$4</f>
         <v>1.6172140911051316</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" ref="K7:N7" si="4">$V7-X7-AC7+$F$4*AC7+$G$4</f>
+        <f t="shared" ref="K7:N7" si="3">$V7-X7-AC7+$F$4*AC7+$G$4</f>
         <v>1.4929205391009273</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.2241164585243371</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.4386613756653261</v>
       </c>
       <c r="N7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6584219478827698</v>
       </c>
       <c r="O7" s="54">
@@ -10390,19 +10694,19 @@
         <v>1.340210708742414</v>
       </c>
       <c r="Q7" s="10">
-        <f t="shared" ref="Q7:T7" si="5">($F$4*$O7*AC7+$G$4+$V7-X7)/(AC7*$O7)</f>
+        <f t="shared" ref="Q7:T7" si="4">($F$4*$O7*AC7+$G$4+$V7-X7)/(AC7*$O7)</f>
         <v>1.3216087919100123</v>
       </c>
       <c r="R7" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.2421526164847667</v>
       </c>
       <c r="S7" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.3027172609440754</v>
       </c>
       <c r="T7" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.3459253516437844</v>
       </c>
       <c r="U7" s="19">
@@ -10504,28 +10808,24 @@
         <f>'DC-h2-ipb2-28b'!P9</f>
         <v>0</v>
       </c>
-      <c r="H8" s="1">
-        <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
       <c r="J8" s="3">
         <f>$V8-W8-AB8+$F$5*AB8+$G$5</f>
         <v>2.1058091383231532</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" ref="K8:N8" si="6">$V8-X8-AC8+$F$5*AC8+$G$5</f>
+        <f t="shared" ref="K8:N8" si="5">$V8-X8-AC8+$F$5*AC8+$G$5</f>
         <v>1.8996041706282858</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.8447857256248059</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.8963346407553998</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.1365073753756421</v>
       </c>
       <c r="O8" s="54">
@@ -10536,19 +10836,19 @@
         <v>1.4039997658644554</v>
       </c>
       <c r="Q8" s="10">
-        <f t="shared" ref="Q8:T8" si="7">($F$5*$O8*AC8+$G$5+$V8-X8)/(AC8*$O8)</f>
+        <f t="shared" ref="Q8:T8" si="6">($F$5*$O8*AC8+$G$5+$V8-X8)/(AC8*$O8)</f>
         <v>1.3646202821202236</v>
       </c>
       <c r="R8" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.351930855650318</v>
       </c>
       <c r="S8" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.3655888424826026</v>
       </c>
       <c r="T8" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.4092938551872272</v>
       </c>
       <c r="U8" s="19">
@@ -10650,28 +10950,24 @@
         <f>'DC-h2-ipb2-28b'!P10</f>
         <v>0</v>
       </c>
-      <c r="H9" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
       <c r="J9" s="3">
         <f>$V9-W9-AB9+$F$7*AB9+$G$7</f>
         <v>2.0361433364840753</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" ref="K9:N9" si="8">$V9-X9-AC9+$F$7*AC9+$G$7</f>
+        <f t="shared" ref="K9:N9" si="7">$V9-X9-AC9+$F$7*AC9+$G$7</f>
         <v>1.8674199842440879</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.8428582442998525</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.8295867080723198</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.9961481824140059</v>
       </c>
       <c r="O9" s="54">
@@ -10682,19 +10978,19 @@
         <v>1.3893316333764298</v>
       </c>
       <c r="Q9" s="10">
-        <f t="shared" ref="Q9:T9" si="9">($F$7*$O9*AC9+$G$7+$V9-X9)/(AC9*$O9)</f>
+        <f t="shared" ref="Q9:T9" si="8">($F$7*$O9*AC9+$G$7+$V9-X9)/(AC9*$O9)</f>
         <v>1.3554544391204053</v>
       </c>
       <c r="R9" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.3480782097653647</v>
       </c>
       <c r="S9" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.3511105260280614</v>
       </c>
       <c r="T9" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.3881800681210013</v>
       </c>
       <c r="U9" s="19">
@@ -10796,28 +11092,24 @@
         <f>'DC-h2-ipb2-28b'!P11</f>
         <v>0</v>
       </c>
-      <c r="H10" s="1">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
       <c r="J10" s="3">
         <f>$V10-W10-AB10+$F$9*AB10+$G$9</f>
         <v>2.1797349484748447</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" ref="K10:N10" si="10">$V10-X10-AC10+$F$9*AC10+$G$9</f>
+        <f t="shared" ref="K10:N10" si="9">$V10-X10-AC10+$F$9*AC10+$G$9</f>
         <v>2.0569647539361799</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.9397135053699524</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0264515157171723</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.1759301647926312</v>
       </c>
       <c r="O10" s="54">
@@ -10828,19 +11120,19 @@
         <v>1.4038439269448175</v>
       </c>
       <c r="Q10" s="10">
-        <f t="shared" ref="Q10:T10" si="11">($F$9*$O10*AC10+$G$9+$V10-X10)/(AC10*$O10)</f>
+        <f t="shared" ref="Q10:T10" si="10">($F$9*$O10*AC10+$G$9+$V10-X10)/(AC10*$O10)</f>
         <v>1.3738522439767913</v>
       </c>
       <c r="R10" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.3371203511242906</v>
       </c>
       <c r="S10" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.3708676239974695</v>
       </c>
       <c r="T10" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.4067475720882316</v>
       </c>
       <c r="U10" s="19">
@@ -10954,28 +11246,24 @@
         <f>'DC-h2-ipb2-28b'!P12</f>
         <v>-3.8901466027035925E-2</v>
       </c>
-      <c r="H11" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
       <c r="J11" s="3">
         <f>$V11-W11-AB11+$F$11*AB11+$G$11</f>
         <v>2.2756489097787078</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" ref="K11:N11" si="12">$V11-X11-AC11+$F$11*AC11+$G$11</f>
+        <f t="shared" ref="K11:N11" si="11">$V11-X11-AC11+$F$11*AC11+$G$11</f>
         <v>2.089801335711746</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.9350120727668727</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.0614685446463401</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.2483206923115464</v>
       </c>
       <c r="O11" s="54">
@@ -10986,19 +11274,19 @@
         <v>1.4146163226159643</v>
       </c>
       <c r="Q11" s="10">
-        <f t="shared" ref="Q11:T11" si="13">($F$11*$O11*AC11+$G$11+$V11-X11)/(AC11*$O11)</f>
+        <f t="shared" ref="Q11:T11" si="12">($F$11*$O11*AC11+$G$11+$V11-X11)/(AC11*$O11)</f>
         <v>1.377462399907476</v>
       </c>
       <c r="R11" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.3363140130356239</v>
       </c>
       <c r="S11" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.3726758861911346</v>
       </c>
       <c r="T11" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.411264810539776</v>
       </c>
       <c r="U11" s="19">
@@ -11167,39 +11455,39 @@
         <v>3.6446901951219601</v>
       </c>
       <c r="X13" s="3">
-        <f t="shared" ref="X13:AA13" si="14">$V6-X6</f>
+        <f t="shared" ref="X13:AA13" si="13">$V6-X6</f>
         <v>3.4780412682926904</v>
       </c>
       <c r="Y13" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3.4990806829268406</v>
       </c>
       <c r="Z13" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3.5268531951219604</v>
       </c>
       <c r="AA13" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3.7432084878048801</v>
       </c>
       <c r="AB13" s="3">
-        <f>AB6/(V6-W6)</f>
+        <f t="shared" ref="AB13:AB18" si="14">AB6/(V6-W6)</f>
         <v>1.1876221966418514</v>
       </c>
       <c r="AC13" s="3">
-        <f>AC6/(V6-X6)</f>
+        <f t="shared" ref="AC13:AC18" si="15">AC6/(V6-X6)</f>
         <v>1.2499277908678765</v>
       </c>
       <c r="AD13" s="3">
-        <f>AD6/(V6-Y6)</f>
+        <f t="shared" ref="AD13:AD18" si="16">AD6/(V6-Y6)</f>
         <v>1.2849982449745585</v>
       </c>
       <c r="AE13" s="3">
-        <f>AE6/(V6-Z6)</f>
+        <f t="shared" ref="AE13:AE18" si="17">AE6/(V6-Z6)</f>
         <v>1.2369563592379751</v>
       </c>
       <c r="AF13" s="3">
-        <f>AF6/(V6-AA6)</f>
+        <f t="shared" ref="AF13:AF18" si="18">AF6/(V6-AA6)</f>
         <v>1.1377595800362934</v>
       </c>
     </row>
@@ -11230,48 +11518,48 @@
       <c r="S14" s="24"/>
       <c r="T14" s="36"/>
       <c r="U14" s="17">
-        <f t="shared" ref="U14:U18" si="15">U7</f>
+        <f t="shared" ref="U14:U18" si="19">U7</f>
         <v>200</v>
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="3">
-        <f t="shared" ref="W14:AA18" si="16">$V7-W7</f>
+        <f t="shared" ref="W14:AA18" si="20">$V7-W7</f>
         <v>4.174477658536599</v>
       </c>
       <c r="X14" s="3">
+        <f t="shared" si="20"/>
+        <v>3.9890952439024598</v>
+      </c>
+      <c r="Y14" s="3">
+        <f t="shared" si="20"/>
+        <v>3.9465692195122095</v>
+      </c>
+      <c r="Z14" s="3">
+        <f t="shared" si="20"/>
+        <v>3.9953366341463585</v>
+      </c>
+      <c r="AA14" s="3">
+        <f t="shared" si="20"/>
+        <v>4.2379215121951397</v>
+      </c>
+      <c r="AB14" s="3">
+        <f t="shared" si="14"/>
+        <v>1.1387211733760687</v>
+      </c>
+      <c r="AC14" s="3">
+        <f t="shared" si="15"/>
+        <v>1.1636821553245962</v>
+      </c>
+      <c r="AD14" s="3">
         <f t="shared" si="16"/>
-        <v>3.9890952439024598</v>
-      </c>
-      <c r="Y14" s="3">
-        <f t="shared" si="16"/>
-        <v>3.9465692195122095</v>
-      </c>
-      <c r="Z14" s="3">
-        <f t="shared" si="16"/>
-        <v>3.9953366341463585</v>
-      </c>
-      <c r="AA14" s="3">
-        <f t="shared" si="16"/>
-        <v>4.2379215121951397</v>
-      </c>
-      <c r="AB14" s="3">
-        <f>AB7/(V7-W7)</f>
-        <v>1.1387211733760687</v>
-      </c>
-      <c r="AC14" s="3">
-        <f>AC7/(V7-X7)</f>
-        <v>1.1636821553245962</v>
-      </c>
-      <c r="AD14" s="3">
-        <f>AD7/(V7-Y7)</f>
         <v>1.2808959332124545</v>
       </c>
       <c r="AE14" s="3">
-        <f>AE7/(V7-Z7)</f>
+        <f t="shared" si="17"/>
         <v>1.1895097920318058</v>
       </c>
       <c r="AF14" s="3">
-        <f>AF7/(V7-AA7)</f>
+        <f t="shared" si="18"/>
         <v>1.1312529804215656</v>
       </c>
     </row>
@@ -11314,48 +11602,48 @@
       <c r="P15" s="9"/>
       <c r="T15" s="36"/>
       <c r="U15" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>250</v>
       </c>
       <c r="V15" s="3"/>
       <c r="W15" s="3">
+        <f t="shared" si="20"/>
+        <v>4.8105813902439021</v>
+      </c>
+      <c r="X15" s="3">
+        <f t="shared" si="20"/>
+        <v>4.603034000000001</v>
+      </c>
+      <c r="Y15" s="3">
+        <f t="shared" si="20"/>
+        <v>4.5648639512195004</v>
+      </c>
+      <c r="Z15" s="3">
+        <f t="shared" si="20"/>
+        <v>4.5879615121951005</v>
+      </c>
+      <c r="AA15" s="3">
+        <f t="shared" si="20"/>
+        <v>4.8452140731707019</v>
+      </c>
+      <c r="AB15" s="3">
+        <f t="shared" si="14"/>
+        <v>1.0835284667711453</v>
+      </c>
+      <c r="AC15" s="3">
+        <f t="shared" si="15"/>
+        <v>1.13182194136493</v>
+      </c>
+      <c r="AD15" s="3">
         <f t="shared" si="16"/>
-        <v>4.8105813902439021</v>
-      </c>
-      <c r="X15" s="3">
-        <f t="shared" si="16"/>
-        <v>4.603034000000001</v>
-      </c>
-      <c r="Y15" s="3">
-        <f t="shared" si="16"/>
-        <v>4.5648639512195004</v>
-      </c>
-      <c r="Z15" s="3">
-        <f t="shared" si="16"/>
-        <v>4.5879615121951005</v>
-      </c>
-      <c r="AA15" s="3">
-        <f t="shared" si="16"/>
-        <v>4.8452140731707019</v>
-      </c>
-      <c r="AB15" s="3">
-        <f>AB8/(V8-W8)</f>
-        <v>1.0835284667711453</v>
-      </c>
-      <c r="AC15" s="3">
-        <f>AC8/(V8-X8)</f>
-        <v>1.13182194136493</v>
-      </c>
-      <c r="AD15" s="3">
-        <f>AD8/(V8-Y8)</f>
         <v>1.1483142270016242</v>
       </c>
       <c r="AE15" s="3">
-        <f>AE8/(V8-Z8)</f>
+        <f t="shared" si="17"/>
         <v>1.1305825539544898</v>
       </c>
       <c r="AF15" s="3">
-        <f>AF8/(V8-AA8)</f>
+        <f t="shared" si="18"/>
         <v>1.0773484764903378</v>
       </c>
       <c r="AG15" s="3"/>
@@ -11392,48 +11680,48 @@
       <c r="P16" s="9"/>
       <c r="T16" s="36"/>
       <c r="U16" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>300</v>
       </c>
       <c r="V16" s="3"/>
       <c r="W16" s="3">
+        <f t="shared" si="20"/>
+        <v>4.6519481463414998</v>
+      </c>
+      <c r="X16" s="3">
+        <f t="shared" si="20"/>
+        <v>4.4950924146342004</v>
+      </c>
+      <c r="Y16" s="3">
+        <f t="shared" si="20"/>
+        <v>4.4908846097560975</v>
+      </c>
+      <c r="Z16" s="3">
+        <f t="shared" si="20"/>
+        <v>4.4359122195122005</v>
+      </c>
+      <c r="AA16" s="3">
+        <f t="shared" si="20"/>
+        <v>4.568257609756099</v>
+      </c>
+      <c r="AB16" s="3">
+        <f t="shared" si="14"/>
+        <v>1.1242264282101837</v>
+      </c>
+      <c r="AC16" s="3">
+        <f t="shared" si="15"/>
+        <v>1.1687441093278026</v>
+      </c>
+      <c r="AD16" s="3">
         <f t="shared" si="16"/>
-        <v>4.6519481463414998</v>
-      </c>
-      <c r="X16" s="3">
-        <f t="shared" si="16"/>
-        <v>4.4950924146342004</v>
-      </c>
-      <c r="Y16" s="3">
-        <f t="shared" si="16"/>
-        <v>4.4908846097560975</v>
-      </c>
-      <c r="Z16" s="3">
-        <f t="shared" si="16"/>
-        <v>4.4359122195122005</v>
-      </c>
-      <c r="AA16" s="3">
-        <f t="shared" si="16"/>
-        <v>4.568257609756099</v>
-      </c>
-      <c r="AB16" s="3">
-        <f>AB9/(V9-W9)</f>
-        <v>1.1242264282101837</v>
-      </c>
-      <c r="AC16" s="3">
-        <f>AC9/(V9-X9)</f>
-        <v>1.1687441093278026</v>
-      </c>
-      <c r="AD16" s="3">
-        <f>AD9/(V9-Y9)</f>
         <v>1.1789169094606486</v>
       </c>
       <c r="AE16" s="3">
-        <f>AE9/(V9-Z9)</f>
+        <f t="shared" si="17"/>
         <v>1.1746979301163982</v>
       </c>
       <c r="AF16" s="3">
-        <f>AF9/(V9-AA9)</f>
+        <f t="shared" si="18"/>
         <v>1.1256644725334306</v>
       </c>
       <c r="AG16" s="3"/>
@@ -11467,48 +11755,48 @@
       <c r="P17" s="9"/>
       <c r="T17" s="36"/>
       <c r="U17" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>350</v>
       </c>
       <c r="V17" s="3"/>
       <c r="W17" s="3">
+        <f t="shared" si="20"/>
+        <v>4.7241892439024014</v>
+      </c>
+      <c r="X17" s="3">
+        <f t="shared" si="20"/>
+        <v>4.6507342682925987</v>
+      </c>
+      <c r="Y17" s="3">
+        <f t="shared" si="20"/>
+        <v>4.652134780487799</v>
+      </c>
+      <c r="Z17" s="3">
+        <f t="shared" si="20"/>
+        <v>4.602308926829199</v>
+      </c>
+      <c r="AA17" s="3">
+        <f t="shared" si="20"/>
+        <v>4.6978106829268</v>
+      </c>
+      <c r="AB17" s="3">
+        <f t="shared" si="14"/>
+        <v>1.142517457337985</v>
+      </c>
+      <c r="AC17" s="3">
+        <f t="shared" si="15"/>
+        <v>1.1830560823322598</v>
+      </c>
+      <c r="AD17" s="3">
         <f t="shared" si="16"/>
-        <v>4.7241892439024014</v>
-      </c>
-      <c r="X17" s="3">
-        <f t="shared" si="16"/>
-        <v>4.6507342682925987</v>
-      </c>
-      <c r="Y17" s="3">
-        <f t="shared" si="16"/>
-        <v>4.652134780487799</v>
-      </c>
-      <c r="Z17" s="3">
-        <f t="shared" si="16"/>
-        <v>4.602308926829199</v>
-      </c>
-      <c r="AA17" s="3">
-        <f t="shared" si="16"/>
-        <v>4.6978106829268</v>
-      </c>
-      <c r="AB17" s="3">
-        <f>AB10/(V10-W10)</f>
-        <v>1.142517457337985</v>
-      </c>
-      <c r="AC17" s="3">
-        <f>AC10/(V10-X10)</f>
-        <v>1.1830560823322598</v>
-      </c>
-      <c r="AD17" s="3">
-        <f>AD10/(V10-Y10)</f>
         <v>1.2368024318402893</v>
       </c>
       <c r="AE17" s="3">
-        <f>AE10/(V10-Z10)</f>
+        <f t="shared" si="17"/>
         <v>1.1872482235401587</v>
       </c>
       <c r="AF17" s="3">
-        <f>AF10/(V10-AA10)</f>
+        <f t="shared" si="18"/>
         <v>1.1387397278435487</v>
       </c>
       <c r="AG17" s="3"/>
@@ -11529,12 +11817,12 @@
     </row>
     <row r="18" spans="1:47" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="76"/>
-      <c r="B18" s="160"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="161"/>
+      <c r="B18" s="151"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="152"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -11545,48 +11833,48 @@
       <c r="P18" s="9"/>
       <c r="T18" s="36"/>
       <c r="U18" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>400</v>
       </c>
       <c r="V18" s="3"/>
       <c r="W18" s="3">
+        <f t="shared" si="20"/>
+        <v>4.7859353902440027</v>
+      </c>
+      <c r="X18" s="3">
+        <f t="shared" si="20"/>
+        <v>4.621648682926903</v>
+      </c>
+      <c r="Y18" s="3">
+        <f t="shared" si="20"/>
+        <v>4.5646322439025013</v>
+      </c>
+      <c r="Z18" s="3">
+        <f t="shared" si="20"/>
+        <v>4.5911018048781003</v>
+      </c>
+      <c r="AA18" s="3">
+        <f t="shared" si="20"/>
+        <v>4.7488265121952011</v>
+      </c>
+      <c r="AB18" s="3">
+        <f t="shared" si="14"/>
+        <v>1.1468114821869262</v>
+      </c>
+      <c r="AC18" s="3">
+        <f t="shared" si="15"/>
+        <v>1.19793809616961</v>
+      </c>
+      <c r="AD18" s="3">
         <f t="shared" si="16"/>
-        <v>4.7859353902440027</v>
-      </c>
-      <c r="X18" s="3">
-        <f t="shared" si="16"/>
-        <v>4.621648682926903</v>
-      </c>
-      <c r="Y18" s="3">
-        <f t="shared" si="16"/>
-        <v>4.5646322439025013</v>
-      </c>
-      <c r="Z18" s="3">
-        <f t="shared" si="16"/>
-        <v>4.5911018048781003</v>
-      </c>
-      <c r="AA18" s="3">
-        <f t="shared" si="16"/>
-        <v>4.7488265121952011</v>
-      </c>
-      <c r="AB18" s="3">
-        <f>AB11/(V11-W11)</f>
-        <v>1.1468114821869262</v>
-      </c>
-      <c r="AC18" s="3">
-        <f>AC11/(V11-X11)</f>
-        <v>1.19793809616961</v>
-      </c>
-      <c r="AD18" s="3">
-        <f>AD11/(V11-Y11)</f>
         <v>1.260471185235102</v>
       </c>
       <c r="AE18" s="3">
-        <f>AE11/(V11-Z11)</f>
+        <f t="shared" si="17"/>
         <v>1.2048375560244518</v>
       </c>
       <c r="AF18" s="3">
-        <f>AF11/(V11-AA11)</f>
+        <f t="shared" si="18"/>
         <v>1.151198996854079</v>
       </c>
       <c r="AG18" s="3"/>
@@ -11607,12 +11895,12 @@
     </row>
     <row r="19" spans="1:47" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="76"/>
-      <c r="B19" s="160"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="161"/>
+      <c r="B19" s="151"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="152"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -11654,12 +11942,12 @@
     </row>
     <row r="20" spans="1:47" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="76"/>
-      <c r="B20" s="160"/>
-      <c r="C20" s="160"/>
-      <c r="D20" s="160"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="161"/>
+      <c r="B20" s="151"/>
+      <c r="C20" s="151"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="152"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -11714,28 +12002,24 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="36"/>
-      <c r="H22" s="1">
-        <f>U22/100</f>
-        <v>1.5</v>
-      </c>
       <c r="J22" s="3">
         <f>$V22-W22-AB22+$F$3*AB22+$G$3</f>
         <v>-0.43096209856580048</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" ref="K22" si="17">$V22-X22-AC22+$F$3*AC22+$G$3</f>
+        <f t="shared" ref="K22" si="21">$V22-X22-AC22+$F$3*AC22+$G$3</f>
         <v>-0.52224956861716221</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" ref="L22" si="18">$V22-Y22-AD22+$F$3*AD22+$G$3</f>
+        <f t="shared" ref="L22" si="22">$V22-Y22-AD22+$F$3*AD22+$G$3</f>
         <v>-0.69283879451587227</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" ref="M22" si="19">$V22-Z22-AE22+$F$3*AE22+$G$3</f>
+        <f t="shared" ref="M22" si="23">$V22-Z22-AE22+$F$3*AE22+$G$3</f>
         <v>-0.54513210093027187</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" ref="N22" si="20">$V22-AA22-AF22+$F$3*AF22+$G$3</f>
+        <f t="shared" ref="N22" si="24">$V22-AA22-AF22+$F$3*AF22+$G$3</f>
         <v>-0.37531232324326358</v>
       </c>
       <c r="O22" s="54">
@@ -11746,19 +12030,19 @@
         <v>0.89580693843173509</v>
       </c>
       <c r="Q22" s="10">
-        <f t="shared" ref="Q22" si="21">($F$3*$O22*AC22+$G$3+$V22-X22)/(AC22*$O22)</f>
+        <f t="shared" ref="Q22" si="25">($F$3*$O22*AC22+$G$3+$V22-X22)/(AC22*$O22)</f>
         <v>0.87987147962411294</v>
       </c>
       <c r="R22" s="10">
-        <f t="shared" ref="R22" si="22">($F$3*$O22*AD22+$G$3+$V22-Y22)/(AD22*$O22)</f>
+        <f t="shared" ref="R22" si="26">($F$3*$O22*AD22+$G$3+$V22-Y22)/(AD22*$O22)</f>
         <v>0.85279866600534182</v>
       </c>
       <c r="S22" s="10">
-        <f t="shared" ref="S22" si="23">($F$3*$O22*AE22+$G$3+$V22-Z22)/(AE22*$O22)</f>
+        <f t="shared" ref="S22" si="27">($F$3*$O22*AE22+$G$3+$V22-Z22)/(AE22*$O22)</f>
         <v>0.87338689975275141</v>
       </c>
       <c r="T22" s="10">
-        <f t="shared" ref="T22" si="24">($F$3*$O22*AF22+$G$3+$V22-AA22)/(AF22*$O22)</f>
+        <f t="shared" ref="T22" si="28">($F$3*$O22*AF22+$G$3+$V22-AA22)/(AF22*$O22)</f>
         <v>0.90735234912317719</v>
       </c>
       <c r="U22" s="19">
@@ -11848,28 +12132,24 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="36"/>
-      <c r="H23" s="1">
-        <f t="shared" ref="H23:H27" si="25">U23/100</f>
-        <v>2</v>
-      </c>
       <c r="J23" s="3">
         <f>$V23-W23-AB23+$F$4*AB23+$G$4</f>
         <v>-0.10468008784399108</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" ref="K23" si="26">$V23-X23-AC23+$F$4*AC23+$G$4</f>
+        <f t="shared" ref="K23" si="29">$V23-X23-AC23+$F$4*AC23+$G$4</f>
         <v>-0.19406384866323645</v>
       </c>
       <c r="L23" s="3">
-        <f t="shared" ref="L23" si="27">$V23-Y23-AD23+$F$4*AD23+$G$4</f>
+        <f t="shared" ref="L23" si="30">$V23-Y23-AD23+$F$4*AD23+$G$4</f>
         <v>-0.31703476325990954</v>
       </c>
       <c r="M23" s="3">
-        <f t="shared" ref="M23" si="28">$V23-Z23-AE23+$F$4*AE23+$G$4</f>
+        <f t="shared" ref="M23" si="31">$V23-Z23-AE23+$F$4*AE23+$G$4</f>
         <v>-0.19752382813183389</v>
       </c>
       <c r="N23" s="3">
-        <f t="shared" ref="N23" si="29">$V23-AA23-AF23+$F$4*AF23+$G$4</f>
+        <f t="shared" ref="N23" si="32">$V23-AA23-AF23+$F$4*AF23+$G$4</f>
         <v>-6.1888237632169441E-2</v>
       </c>
       <c r="O23" s="54">
@@ -11880,19 +12160,19 @@
         <v>0.97519846489356621</v>
       </c>
       <c r="Q23" s="10">
-        <f t="shared" ref="Q23:T23" si="30">($F$4*$O23*AC23+$G$4+$V23-X23)/(AC23*$O23)</f>
+        <f t="shared" ref="Q23:T23" si="33">($F$4*$O23*AC23+$G$4+$V23-X23)/(AC23*$O23)</f>
         <v>0.95642440378432725</v>
       </c>
       <c r="R23" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.93446375888990207</v>
       </c>
       <c r="S23" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.95531132298910515</v>
       </c>
       <c r="T23" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.98503984428128577</v>
       </c>
       <c r="U23" s="19">
@@ -11985,29 +12265,26 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="36"/>
-      <c r="H24" s="1">
-        <f t="shared" si="25"/>
-        <v>2.5</v>
-      </c>
+      <c r="H24" s="1"/>
       <c r="I24" s="7"/>
       <c r="J24" s="3">
         <f>$V24-W24-AB24+$F$5*AB24+$G$5</f>
         <v>0.14539242236119199</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" ref="K24" si="31">$V24-X24-AC24+$F$5*AC24+$G$5</f>
+        <f t="shared" ref="K24" si="34">$V24-X24-AC24+$F$5*AC24+$G$5</f>
         <v>8.3003579206385236E-2</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" ref="L24" si="32">$V24-Y24-AD24+$F$5*AD24+$G$5</f>
+        <f t="shared" ref="L24" si="35">$V24-Y24-AD24+$F$5*AD24+$G$5</f>
         <v>2.207526443362573E-2</v>
       </c>
       <c r="M24" s="3">
-        <f t="shared" ref="M24" si="33">$V24-Z24-AE24+$F$5*AE24+$G$5</f>
+        <f t="shared" ref="M24" si="36">$V24-Z24-AE24+$F$5*AE24+$G$5</f>
         <v>9.1812300716795914E-2</v>
       </c>
       <c r="N24" s="3">
-        <f t="shared" ref="N24" si="34">$V24-AA24-AF24+$F$5*AF24+$G$5</f>
+        <f t="shared" ref="N24" si="37">$V24-AA24-AF24+$F$5*AF24+$G$5</f>
         <v>0.17707730997355675</v>
       </c>
       <c r="O24" s="54">
@@ -12018,19 +12295,19 @@
         <v>1.0330513202344105</v>
       </c>
       <c r="Q24" s="10">
-        <f t="shared" ref="Q24:T24" si="35">($F$5*$O24*AC24+$G$5+$V24-X24)/(AC24*$O24)</f>
+        <f t="shared" ref="Q24:T24" si="38">($F$5*$O24*AC24+$G$5+$V24-X24)/(AC24*$O24)</f>
         <v>1.0175408252704046</v>
       </c>
       <c r="R24" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.0042868327367349</v>
       </c>
       <c r="S24" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.0194735780501469</v>
       </c>
       <c r="T24" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.0407237849099824</v>
       </c>
       <c r="U24" s="19">
@@ -12123,29 +12400,26 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="36"/>
-      <c r="H25" s="1">
-        <f t="shared" si="25"/>
-        <v>3</v>
-      </c>
+      <c r="H25" s="1"/>
       <c r="I25" s="7"/>
       <c r="J25" s="3">
         <f>$V25-W25-AB25+$F$7*AB25+$G$7</f>
         <v>0.54049360351608922</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" ref="K25" si="36">$V25-X25-AC25+$F$7*AC25+$G$7</f>
+        <f t="shared" ref="K25" si="39">$V25-X25-AC25+$F$7*AC25+$G$7</f>
         <v>0.61742269718946474</v>
       </c>
       <c r="L25" s="3">
-        <f t="shared" ref="L25" si="37">$V25-Y25-AD25+$F$7*AD25+$G$7</f>
+        <f t="shared" ref="L25" si="40">$V25-Y25-AD25+$F$7*AD25+$G$7</f>
         <v>0.63686129923007684</v>
       </c>
       <c r="M25" s="3">
-        <f t="shared" ref="M25" si="38">$V25-Z25-AE25+$F$7*AE25+$G$7</f>
+        <f t="shared" ref="M25" si="41">$V25-Z25-AE25+$F$7*AE25+$G$7</f>
         <v>0.64448391167863761</v>
       </c>
       <c r="N25" s="3">
-        <f t="shared" ref="N25" si="39">$V25-AA25-AF25+$F$7*AF25+$G$7</f>
+        <f t="shared" ref="N25" si="42">$V25-AA25-AF25+$F$7*AF25+$G$7</f>
         <v>0.59369545219858022</v>
       </c>
       <c r="O25" s="54">
@@ -12156,19 +12430,19 @@
         <v>1.1131415724958751</v>
       </c>
       <c r="Q25" s="10">
-        <f t="shared" ref="Q25:T25" si="40">($F$7*$O25*AC25+$G$7+$V25-X25)/(AC25*$O25)</f>
+        <f t="shared" ref="Q25:T25" si="43">($F$7*$O25*AC25+$G$7+$V25-X25)/(AC25*$O25)</f>
         <v>1.1177293165305648</v>
       </c>
       <c r="R25" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1.1086764565831657</v>
       </c>
       <c r="S25" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1.1228945947419018</v>
       </c>
       <c r="T25" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1.1253142483610716</v>
       </c>
       <c r="U25" s="19">
@@ -12259,29 +12533,26 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="39"/>
-      <c r="H26" s="1">
-        <f t="shared" si="25"/>
-        <v>3.5</v>
-      </c>
+      <c r="H26" s="1"/>
       <c r="I26" s="7"/>
       <c r="J26" s="3">
         <f>$V26-W26-AB26+$F$9*AB26+$G$9</f>
         <v>0.88617680831891299</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" ref="K26" si="41">$V26-X26-AC26+$F$9*AC26+$G$9</f>
+        <f t="shared" ref="K26" si="44">$V26-X26-AC26+$F$9*AC26+$G$9</f>
         <v>0.73976691353508173</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" ref="L26" si="42">$V26-Y26-AD26+$F$9*AD26+$G$9</f>
+        <f t="shared" ref="L26" si="45">$V26-Y26-AD26+$F$9*AD26+$G$9</f>
         <v>0.72446968576069626</v>
       </c>
       <c r="M26" s="3">
-        <f t="shared" ref="M26" si="43">$V26-Z26-AE26+$F$9*AE26+$G$9</f>
+        <f t="shared" ref="M26" si="46">$V26-Z26-AE26+$F$9*AE26+$G$9</f>
         <v>0.76597840725935473</v>
       </c>
       <c r="N26" s="3">
-        <f t="shared" ref="N26" si="44">$V26-AA26-AF26+$F$9*AF26+$G$9</f>
+        <f t="shared" ref="N26" si="47">$V26-AA26-AF26+$F$9*AF26+$G$9</f>
         <v>0.80791614546608592</v>
       </c>
       <c r="O26" s="54">
@@ -12292,19 +12563,19 @@
         <v>1.1911265603391135</v>
       </c>
       <c r="Q26" s="10">
-        <f t="shared" ref="Q26:T26" si="45">($F$9*$O26*AC26+$G$9+$V26-X26)/(AC26*$O26)</f>
+        <f t="shared" ref="Q26:T26" si="48">($F$9*$O26*AC26+$G$9+$V26-X26)/(AC26*$O26)</f>
         <v>1.1416040114879296</v>
       </c>
       <c r="R26" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>1.1263683881596076</v>
       </c>
       <c r="S26" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>1.1471578142781147</v>
       </c>
       <c r="T26" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>1.1674426620676563</v>
       </c>
       <c r="U26" s="19">
@@ -12395,29 +12666,26 @@
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="39"/>
-      <c r="H27" s="1">
-        <f t="shared" si="25"/>
-        <v>4</v>
-      </c>
+      <c r="H27" s="1"/>
       <c r="I27" s="7"/>
       <c r="J27" s="3">
         <f>$V27-W27-AB27+$F$11*AB27+$G$11</f>
         <v>0.88711064765347358</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" ref="K27" si="46">$V27-X27-AC27+$F$11*AC27+$G$11</f>
+        <f t="shared" ref="K27" si="49">$V27-X27-AC27+$F$11*AC27+$G$11</f>
         <v>0.72916102252114556</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" ref="L27" si="47">$V27-Y27-AD27+$F$11*AD27+$G$11</f>
+        <f t="shared" ref="L27" si="50">$V27-Y27-AD27+$F$11*AD27+$G$11</f>
         <v>0.61936483711384516</v>
       </c>
       <c r="M27" s="3">
-        <f t="shared" ref="M27" si="48">$V27-Z27-AE27+$F$11*AE27+$G$11</f>
+        <f t="shared" ref="M27" si="51">$V27-Z27-AE27+$F$11*AE27+$G$11</f>
         <v>0.7230765243169428</v>
       </c>
       <c r="N27" s="3">
-        <f t="shared" ref="N27" si="49">$V27-AA27-AF27+$F$11*AF27+$G$11</f>
+        <f t="shared" ref="N27" si="52">$V27-AA27-AF27+$F$11*AF27+$G$11</f>
         <v>0.9588452691182574</v>
       </c>
       <c r="O27" s="54">
@@ -12428,19 +12696,19 @@
         <v>1.1846097788931809</v>
       </c>
       <c r="Q27" s="10">
-        <f t="shared" ref="Q27:T27" si="50">($F$11*$O27*AC27+$G$11+$V27-X27)/(AC27*$O27)</f>
+        <f t="shared" ref="Q27:T27" si="53">($F$11*$O27*AC27+$G$11+$V27-X27)/(AC27*$O27)</f>
         <v>1.1420260922896226</v>
       </c>
       <c r="R27" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>1.1126835532482648</v>
       </c>
       <c r="S27" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>1.1410682503692151</v>
       </c>
       <c r="T27" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>1.2059472274895684</v>
       </c>
       <c r="U27" s="19">
@@ -12600,39 +12868,39 @@
         <v>1.9955236829268301</v>
       </c>
       <c r="X29" s="3">
-        <f t="shared" ref="X29:AA29" si="51">$V22-X22</f>
+        <f t="shared" ref="X29:AA29" si="54">$V22-X22</f>
         <v>2.0281570975609702</v>
       </c>
       <c r="Y29" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>2.0683615853658495</v>
       </c>
       <c r="Z29" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>1.9806773658536594</v>
       </c>
       <c r="AA29" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>2.0011770975609702</v>
       </c>
       <c r="AB29" s="3">
-        <f>AB22/(V22-W22)</f>
+        <f t="shared" ref="AB29:AB34" si="55">AB22/(V22-W22)</f>
         <v>2.0727331419611077</v>
       </c>
       <c r="AC29" s="3">
-        <f>AC22/(V22-X22)</f>
+        <f t="shared" ref="AC29:AC34" si="56">AC22/(V22-X22)</f>
         <v>2.1435339695206466</v>
       </c>
       <c r="AD29" s="3">
-        <f>AD22/(V22-Y22)</f>
+        <f t="shared" ref="AD29:AD34" si="57">AD22/(V22-Y22)</f>
         <v>2.2755898521069353</v>
       </c>
       <c r="AE29" s="3">
-        <f>AE22/(V22-Z22)</f>
+        <f t="shared" ref="AE29:AE34" si="58">AE22/(V22-Z22)</f>
         <v>2.1737488993048593</v>
       </c>
       <c r="AF29" s="3">
-        <f>AF22/(V22-AA22)</f>
+        <f t="shared" ref="AF29:AF34" si="59">AF22/(V22-AA22)</f>
         <v>2.0242907402997892</v>
       </c>
       <c r="AG29" s="23"/>
@@ -12672,43 +12940,43 @@
       <c r="U30" s="19"/>
       <c r="V30" s="23"/>
       <c r="W30" s="3">
-        <f t="shared" ref="W30:AA30" si="52">$V23-W23</f>
+        <f t="shared" ref="W30:AA30" si="60">$V23-W23</f>
         <v>2.1607121951220005</v>
       </c>
       <c r="X30" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>2.1988380000000003</v>
       </c>
       <c r="Y30" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>2.2862302195122002</v>
       </c>
       <c r="Z30" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>2.1770277804877995</v>
       </c>
       <c r="AA30" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>2.1575814390244012</v>
       </c>
       <c r="AB30" s="3">
-        <f>AB23/(V23-W23)</f>
+        <f t="shared" si="55"/>
         <v>1.9533883475637648</v>
       </c>
       <c r="AC30" s="3">
-        <f>AC23/(V23-X23)</f>
+        <f t="shared" si="56"/>
         <v>2.0253872339090688</v>
       </c>
       <c r="AD30" s="3">
-        <f>AD23/(V23-Y23)</f>
+        <f t="shared" si="57"/>
         <v>2.115949977041232</v>
       </c>
       <c r="AE30" s="3">
-        <f>AE23/(V23-Z23)</f>
+        <f t="shared" si="58"/>
         <v>2.0302897643877635</v>
       </c>
       <c r="AF30" s="3">
-        <f>AF23/(V23-AA23)</f>
+        <f t="shared" si="59"/>
         <v>1.9173650387828598</v>
       </c>
       <c r="AG30" s="23"/>
@@ -12748,43 +13016,43 @@
       <c r="U31" s="19"/>
       <c r="V31" s="23"/>
       <c r="W31" s="3">
-        <f t="shared" ref="W31:AA31" si="53">$V24-W24</f>
+        <f t="shared" ref="W31:AA31" si="61">$V24-W24</f>
         <v>2.4280762926829009</v>
       </c>
       <c r="X31" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>2.538501707317101</v>
       </c>
       <c r="Y31" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>2.6942335853659003</v>
       </c>
       <c r="Z31" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>2.5383275365854008</v>
       </c>
       <c r="AA31" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>2.4334331463415015</v>
       </c>
       <c r="AB31" s="3">
-        <f>AB24/(V24-W24)</f>
+        <f t="shared" si="55"/>
         <v>1.8117181354288829</v>
       </c>
       <c r="AC31" s="3">
-        <f>AC24/(V24-X24)</f>
+        <f t="shared" si="56"/>
         <v>1.8641005636414654</v>
       </c>
       <c r="AD31" s="3">
-        <f>AD24/(V24-Y24)</f>
+        <f t="shared" si="57"/>
         <v>1.9113231956991235</v>
       </c>
       <c r="AE31" s="3">
-        <f>AE24/(V24-Z24)</f>
+        <f t="shared" si="58"/>
         <v>1.8574086073133242</v>
       </c>
       <c r="AF31" s="3">
-        <f>AF24/(V24-AA24)</f>
+        <f t="shared" si="59"/>
         <v>1.7868798913316593</v>
       </c>
       <c r="AG31" s="23"/>
@@ -12824,43 +13092,43 @@
       <c r="U32" s="19"/>
       <c r="V32" s="23"/>
       <c r="W32" s="3">
-        <f t="shared" ref="W32:AA32" si="54">$V25-W25</f>
+        <f t="shared" ref="W32:AA32" si="62">$V25-W25</f>
         <v>2.9302774146341015</v>
       </c>
       <c r="X32" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>3.2405084390242997</v>
       </c>
       <c r="Y32" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>3.5673667073169995</v>
       </c>
       <c r="Z32" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>3.2674570975609001</v>
       </c>
       <c r="AA32" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>2.9637624390243005</v>
       </c>
       <c r="AB32" s="3">
-        <f>AB25/(V25-W25)</f>
+        <f t="shared" si="55"/>
         <v>1.6302702764162087</v>
       </c>
       <c r="AC32" s="3">
-        <f>AC25/(V25-X25)</f>
+        <f t="shared" si="56"/>
         <v>1.6183960547715157</v>
       </c>
       <c r="AD32" s="3">
-        <f>AD25/(V25-Y25)</f>
+        <f t="shared" si="57"/>
         <v>1.6427127723199331</v>
       </c>
       <c r="AE32" s="3">
-        <f>AE25/(V25-Z25)</f>
+        <f t="shared" si="58"/>
         <v>1.6049791864324843</v>
       </c>
       <c r="AF32" s="3">
-        <f>AF25/(V25-AA25)</f>
+        <f t="shared" si="59"/>
         <v>1.598526642058353</v>
       </c>
       <c r="AG32" s="23"/>
@@ -12900,43 +13168,43 @@
       <c r="U33" s="19"/>
       <c r="V33" s="23"/>
       <c r="W33" s="3">
-        <f t="shared" ref="W33:AA33" si="55">$V26-W26</f>
+        <f t="shared" ref="W33:AA33" si="63">$V26-W26</f>
         <v>3.0719437804877998</v>
       </c>
       <c r="X33" s="3">
+        <f t="shared" si="63"/>
+        <v>3.2025369999999995</v>
+      </c>
+      <c r="Y33" s="3">
+        <f t="shared" si="63"/>
+        <v>3.4270978292683019</v>
+      </c>
+      <c r="Z33" s="3">
+        <f t="shared" si="63"/>
+        <v>3.2197702682926987</v>
+      </c>
+      <c r="AA33" s="3">
+        <f t="shared" si="63"/>
+        <v>3.0825143414634013</v>
+      </c>
+      <c r="AB33" s="3">
         <f t="shared" si="55"/>
-        <v>3.2025369999999995</v>
-      </c>
-      <c r="Y33" s="3">
-        <f t="shared" si="55"/>
-        <v>3.4270978292683019</v>
-      </c>
-      <c r="Z33" s="3">
-        <f t="shared" si="55"/>
-        <v>3.2197702682926987</v>
-      </c>
-      <c r="AA33" s="3">
-        <f t="shared" si="55"/>
-        <v>3.0825143414634013</v>
-      </c>
-      <c r="AB33" s="3">
-        <f>AB26/(V26-W26)</f>
         <v>1.5093364934309723</v>
       </c>
       <c r="AC33" s="3">
-        <f>AC26/(V26-X26)</f>
+        <f t="shared" si="56"/>
         <v>1.631267526263116</v>
       </c>
       <c r="AD33" s="3">
-        <f>AD26/(V26-Y26)</f>
+        <f t="shared" si="57"/>
         <v>1.6728433332530739</v>
       </c>
       <c r="AE33" s="3">
-        <f>AE26/(V26-Z26)</f>
+        <f t="shared" si="58"/>
         <v>1.6166213600711208</v>
       </c>
       <c r="AF33" s="3">
-        <f>AF26/(V26-AA26)</f>
+        <f t="shared" si="59"/>
         <v>1.5652909034791194</v>
       </c>
       <c r="AG33" s="23"/>
@@ -12976,43 +13244,43 @@
       <c r="U34" s="19"/>
       <c r="V34" s="23"/>
       <c r="W34" s="3">
-        <f t="shared" ref="W34:AA34" si="56">$V27-W27</f>
+        <f t="shared" ref="W34:AA34" si="64">$V27-W27</f>
         <v>3.0897499268291995</v>
       </c>
       <c r="X34" s="3">
+        <f t="shared" si="64"/>
+        <v>3.0797911219512031</v>
+      </c>
+      <c r="Y34" s="3">
+        <f t="shared" si="64"/>
+        <v>3.1332227317072991</v>
+      </c>
+      <c r="Z34" s="3">
+        <f t="shared" si="64"/>
+        <v>3.0699818292683005</v>
+      </c>
+      <c r="AA34" s="3">
+        <f t="shared" si="64"/>
+        <v>3.0941466097561019</v>
+      </c>
+      <c r="AB34" s="3">
+        <f t="shared" si="55"/>
+        <v>1.5552483855213592</v>
+      </c>
+      <c r="AC34" s="3">
         <f t="shared" si="56"/>
-        <v>3.0797911219512031</v>
-      </c>
-      <c r="Y34" s="3">
-        <f t="shared" si="56"/>
-        <v>3.1332227317072991</v>
-      </c>
-      <c r="Z34" s="3">
-        <f t="shared" si="56"/>
-        <v>3.0699818292683005</v>
-      </c>
-      <c r="AA34" s="3">
-        <f t="shared" si="56"/>
-        <v>3.0941466097561019</v>
-      </c>
-      <c r="AB34" s="3">
-        <f>AB27/(V27-W27)</f>
-        <v>1.5552483855213592</v>
-      </c>
-      <c r="AC34" s="3">
-        <f>AC27/(V27-X27)</f>
         <v>1.6669940302255</v>
       </c>
       <c r="AD34" s="3">
-        <f>AD27/(V27-Y27)</f>
+        <f t="shared" si="57"/>
         <v>1.7542631629373977</v>
       </c>
       <c r="AE34" s="3">
-        <f>AE27/(V27-Z27)</f>
+        <f t="shared" si="58"/>
         <v>1.6696259146047989</v>
       </c>
       <c r="AF34" s="3">
-        <f>AF27/(V27-AA27)</f>
+        <f t="shared" si="59"/>
         <v>1.5047061362780396</v>
       </c>
       <c r="AG34" s="23"/>
@@ -13134,28 +13402,24 @@
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="36"/>
-      <c r="H38" s="1">
-        <f>U38/100</f>
-        <v>1.5</v>
-      </c>
       <c r="J38" s="3">
         <f>$V38-W38-AB38+$F$3*AB38+$G$3</f>
         <v>3.5302156878729885</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" ref="K38" si="57">$V38-X38-AC38+$F$3*AC38+$G$3</f>
+        <f t="shared" ref="K38" si="65">$V38-X38-AC38+$F$3*AC38+$G$3</f>
         <v>3.6672400404608538</v>
       </c>
       <c r="L38" s="3">
-        <f t="shared" ref="L38" si="58">$V38-Y38-AD38+$F$3*AD38+$G$3</f>
+        <f t="shared" ref="L38" si="66">$V38-Y38-AD38+$F$3*AD38+$G$3</f>
         <v>3.3617816943921461</v>
       </c>
       <c r="M38" s="3">
-        <f t="shared" ref="M38" si="59">$V38-Z38-AE38+$F$3*AE38+$G$3</f>
+        <f t="shared" ref="M38" si="67">$V38-Z38-AE38+$F$3*AE38+$G$3</f>
         <v>3.3444461502495608</v>
       </c>
       <c r="N38" s="3">
-        <f t="shared" ref="N38" si="60">$V38-AA38-AF38+$F$3*AF38+$G$3</f>
+        <f t="shared" ref="N38" si="68">$V38-AA38-AF38+$F$3*AF38+$G$3</f>
         <v>3.4037773886694409</v>
       </c>
       <c r="O38" s="54">
@@ -13166,11 +13430,11 @@
         <v>2.5249406457655059</v>
       </c>
       <c r="Q38" s="10">
-        <f t="shared" ref="Q38" si="61">($F$3*$O38*AC38+$G$3+$V38-X38)/(AC38*$O38)</f>
+        <f t="shared" ref="Q38" si="69">($F$3*$O38*AC38+$G$3+$V38-X38)/(AC38*$O38)</f>
         <v>2.4159935618865047</v>
       </c>
       <c r="R38" s="10">
-        <f t="shared" ref="R38" si="62">($F$3*$O38*AD38+$G$3+$V38-Y38)/(AD38*$O38)</f>
+        <f t="shared" ref="R38" si="70">($F$3*$O38*AD38+$G$3+$V38-Y38)/(AD38*$O38)</f>
         <v>2.1758528745347712</v>
       </c>
       <c r="S38" s="10">
@@ -13178,7 +13442,7 @@
         <v>2.2843798839970328</v>
       </c>
       <c r="T38" s="10">
-        <f t="shared" ref="T38" si="63">($F$3*$O38*AF38+$G$3+$V38-AA38)/(AF38*$O38)</f>
+        <f t="shared" ref="T38" si="71">($F$3*$O38*AF38+$G$3+$V38-AA38)/(AF38*$O38)</f>
         <v>2.4710920884609902</v>
       </c>
       <c r="U38" s="19">
@@ -13268,28 +13532,24 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="36"/>
-      <c r="H39" s="1">
-        <f t="shared" ref="H39:H43" si="64">U39/100</f>
-        <v>2</v>
-      </c>
       <c r="J39" s="3">
         <f>$V39-W39-AB39+$F$4*AB39+$G$4</f>
         <v>1.0586623920234826</v>
       </c>
       <c r="K39" s="3">
-        <f t="shared" ref="K39" si="65">$V39-X39-AC39+$F$4*AC39+$G$4</f>
+        <f t="shared" ref="K39" si="72">$V39-X39-AC39+$F$4*AC39+$G$4</f>
         <v>1.0804859560300351</v>
       </c>
       <c r="L39" s="3">
-        <f t="shared" ref="L39" si="66">$V39-Y39-AD39+$F$4*AD39+$G$4</f>
+        <f t="shared" ref="L39" si="73">$V39-Y39-AD39+$F$4*AD39+$G$4</f>
         <v>1.1873115397365259</v>
       </c>
       <c r="M39" s="3">
-        <f t="shared" ref="M39" si="67">$V39-Z39-AE39+$F$4*AE39+$G$4</f>
+        <f t="shared" ref="M39" si="74">$V39-Z39-AE39+$F$4*AE39+$G$4</f>
         <v>0.99942204878256691</v>
       </c>
       <c r="N39" s="3">
-        <f t="shared" ref="N39" si="68">$V39-AA39-AF39+$F$4*AF39+$G$4</f>
+        <f t="shared" ref="N39" si="75">$V39-AA39-AF39+$F$4*AF39+$G$4</f>
         <v>0.88104663931303384</v>
       </c>
       <c r="O39" s="54">
@@ -13300,19 +13560,19 @@
         <v>1.3769141932712976</v>
       </c>
       <c r="Q39" s="10">
-        <f t="shared" ref="Q39" si="69">($F$4*$O39*AC39+$G$4+$V39-X39)/(AC39*$O39)</f>
+        <f t="shared" ref="Q39" si="76">($F$4*$O39*AC39+$G$4+$V39-X39)/(AC39*$O39)</f>
         <v>1.3232785023392919</v>
       </c>
       <c r="R39" s="10">
-        <f t="shared" ref="R39" si="70">($F$4*$O39*AD39+$G$4+$V39-Y39)/(AD39*$O39)</f>
+        <f t="shared" ref="R39" si="77">($F$4*$O39*AD39+$G$4+$V39-Y39)/(AD39*$O39)</f>
         <v>1.3136762693691255</v>
       </c>
       <c r="S39" s="10">
-        <f t="shared" ref="S39" si="71">($F$4*$O39*AE39+$G$4+$V39-Z39)/(AE39*$O39)</f>
+        <f t="shared" ref="S39" si="78">($F$4*$O39*AE39+$G$4+$V39-Z39)/(AE39*$O39)</f>
         <v>1.2983962377133769</v>
       </c>
       <c r="T39" s="10">
-        <f t="shared" ref="T39" si="72">($F$4*$O39*AF39+$G$4+$V39-AA39)/(AF39*$O39)</f>
+        <f t="shared" ref="T39" si="79">($F$4*$O39*AF39+$G$4+$V39-AA39)/(AF39*$O39)</f>
         <v>1.3129921411066443</v>
       </c>
       <c r="U39" s="19">
@@ -13398,29 +13658,25 @@
       </c>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="H40" s="1">
-        <f t="shared" si="64"/>
-        <v>2.5</v>
-      </c>
       <c r="I40" s="7"/>
       <c r="J40" s="3">
         <f>$V40-W40-AB40+$F$5*AB40+$G$5</f>
         <v>0.94480017916108383</v>
       </c>
       <c r="K40" s="3">
-        <f t="shared" ref="K40" si="73">$V40-X40-AC40+$F$5*AC40+$G$5</f>
+        <f t="shared" ref="K40" si="80">$V40-X40-AC40+$F$5*AC40+$G$5</f>
         <v>1.2278135226541997</v>
       </c>
       <c r="L40" s="3">
-        <f t="shared" ref="L40" si="74">$V40-Y40-AD40+$F$5*AD40+$G$5</f>
+        <f t="shared" ref="L40" si="81">$V40-Y40-AD40+$F$5*AD40+$G$5</f>
         <v>1.3126164639548796</v>
       </c>
       <c r="M40" s="3">
-        <f t="shared" ref="M40" si="75">$V40-Z40-AE40+$F$5*AE40+$G$5</f>
+        <f t="shared" ref="M40" si="82">$V40-Z40-AE40+$F$5*AE40+$G$5</f>
         <v>1.2455859550752801</v>
       </c>
       <c r="N40" s="3">
-        <f t="shared" ref="N40" si="76">$V40-AA40-AF40+$F$5*AF40+$G$5</f>
+        <f t="shared" ref="N40" si="83">$V40-AA40-AF40+$F$5*AF40+$G$5</f>
         <v>1.0896157604265291</v>
       </c>
       <c r="O40" s="54">
@@ -13431,19 +13687,19 @@
         <v>1.2867940047087574</v>
       </c>
       <c r="Q40" s="10">
-        <f t="shared" ref="Q40" si="77">($F$5*$O40*AC40+$G$5+$V40-X40)/(AC40*$O40)</f>
+        <f t="shared" ref="Q40" si="84">($F$5*$O40*AC40+$G$5+$V40-X40)/(AC40*$O40)</f>
         <v>1.3094019214389194</v>
       </c>
       <c r="R40" s="10">
-        <f t="shared" ref="R40" si="78">($F$5*$O40*AD40+$G$5+$V40-Y40)/(AD40*$O40)</f>
+        <f t="shared" ref="R40" si="85">($F$5*$O40*AD40+$G$5+$V40-Y40)/(AD40*$O40)</f>
         <v>1.2919120163342648</v>
       </c>
       <c r="S40" s="10">
-        <f t="shared" ref="S40" si="79">($F$5*$O40*AE40+$G$5+$V40-Z40)/(AE40*$O40)</f>
+        <f t="shared" ref="S40" si="86">($F$5*$O40*AE40+$G$5+$V40-Z40)/(AE40*$O40)</f>
         <v>1.31301607209855</v>
       </c>
       <c r="T40" s="10">
-        <f t="shared" ref="T40" si="80">($F$5*$O40*AF40+$G$5+$V40-AA40)/(AF40*$O40)</f>
+        <f t="shared" ref="T40" si="87">($F$5*$O40*AF40+$G$5+$V40-AA40)/(AF40*$O40)</f>
         <v>1.3311870359359361</v>
       </c>
       <c r="U40" s="19">
@@ -13529,29 +13785,25 @@
       </c>
     </row>
     <row r="41" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="H41" s="1">
-        <f t="shared" si="64"/>
-        <v>3</v>
-      </c>
       <c r="I41" s="7"/>
       <c r="J41" s="3">
         <f>$V41-W41-AB41+$F$7*AB41+$G$7</f>
         <v>0.20463319243131095</v>
       </c>
       <c r="K41" s="3">
-        <f t="shared" ref="K41" si="81">$V41-X41-AC41+$F$7*AC41+$G$7</f>
+        <f t="shared" ref="K41" si="88">$V41-X41-AC41+$F$7*AC41+$G$7</f>
         <v>1.5486427693342857</v>
       </c>
       <c r="L41" s="3">
-        <f t="shared" ref="L41" si="82">$V41-Y41-AD41+$F$7*AD41+$G$7</f>
+        <f t="shared" ref="L41" si="89">$V41-Y41-AD41+$F$7*AD41+$G$7</f>
         <v>1.9004394758753484</v>
       </c>
       <c r="M41" s="3">
-        <f t="shared" ref="M41" si="83">$V41-Z41-AE41+$F$7*AE41+$G$7</f>
+        <f t="shared" ref="M41" si="90">$V41-Z41-AE41+$F$7*AE41+$G$7</f>
         <v>1.6460431621668929</v>
       </c>
       <c r="N41" s="3">
-        <f t="shared" ref="N41" si="84">$V41-AA41-AF41+$F$7*AF41+$G$7</f>
+        <f t="shared" ref="N41" si="91">$V41-AA41-AF41+$F$7*AF41+$G$7</f>
         <v>1.2348832467903534</v>
       </c>
       <c r="O41" s="54">
@@ -13562,19 +13814,19 @@
         <v>1.0552430024233996</v>
       </c>
       <c r="Q41" s="10">
-        <f t="shared" ref="Q41" si="85">($F$7*$O41*AC41+$G$7+$V41-X41)/(AC41*$O41)</f>
+        <f t="shared" ref="Q41" si="92">($F$7*$O41*AC41+$G$7+$V41-X41)/(AC41*$O41)</f>
         <v>1.3423365696920766</v>
       </c>
       <c r="R41" s="10">
-        <f t="shared" ref="R41" si="86">($F$7*$O41*AD41+$G$7+$V41-Y41)/(AD41*$O41)</f>
+        <f t="shared" ref="R41" si="93">($F$7*$O41*AD41+$G$7+$V41-Y41)/(AD41*$O41)</f>
         <v>1.3590202489615753</v>
       </c>
       <c r="S41" s="10">
-        <f t="shared" ref="S41" si="87">($F$7*$O41*AE41+$G$7+$V41-Z41)/(AE41*$O41)</f>
+        <f t="shared" ref="S41" si="94">($F$7*$O41*AE41+$G$7+$V41-Z41)/(AE41*$O41)</f>
         <v>1.3635578611321701</v>
       </c>
       <c r="T41" s="10">
-        <f t="shared" ref="T41" si="88">($F$7*$O41*AF41+$G$7+$V41-AA41)/(AF41*$O41)</f>
+        <f t="shared" ref="T41" si="95">($F$7*$O41*AF41+$G$7+$V41-AA41)/(AF41*$O41)</f>
         <v>1.3323006554834482</v>
       </c>
       <c r="U41" s="19">
@@ -13660,29 +13912,25 @@
       </c>
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="H42" s="1">
-        <f t="shared" si="64"/>
-        <v>3.5</v>
-      </c>
       <c r="I42" s="7"/>
       <c r="J42" s="3">
         <f>$V42-W42-AB42+$F$9*AB42+$G$9</f>
         <v>1.5261486290867157</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" ref="K42" si="89">$V42-X42-AC42+$F$9*AC42+$G$9</f>
+        <f t="shared" ref="K42" si="96">$V42-X42-AC42+$F$9*AC42+$G$9</f>
         <v>1.6671079672795694</v>
       </c>
       <c r="L42" s="3">
-        <f t="shared" ref="L42" si="90">$V42-Y42-AD42+$F$9*AD42+$G$9</f>
+        <f t="shared" ref="L42" si="97">$V42-Y42-AD42+$F$9*AD42+$G$9</f>
         <v>1.4697503314379179</v>
       </c>
       <c r="M42" s="3">
-        <f t="shared" ref="M42" si="91">$V42-Z42-AE42+$F$9*AE42+$G$9</f>
+        <f t="shared" ref="M42" si="98">$V42-Z42-AE42+$F$9*AE42+$G$9</f>
         <v>1.4860811559118061</v>
       </c>
       <c r="N42" s="3">
-        <f t="shared" ref="N42" si="92">$V42-AA42-AF42+$F$9*AF42+$G$9</f>
+        <f t="shared" ref="N42" si="99">$V42-AA42-AF42+$F$9*AF42+$G$9</f>
         <v>1.3705675506799753</v>
       </c>
       <c r="O42" s="54">
@@ -13693,19 +13941,19 @@
         <v>1.4188704607992935</v>
       </c>
       <c r="Q42" s="10">
-        <f t="shared" ref="Q42" si="93">($F$9*$O42*AC42+$G$9+$V42-X42)/(AC42*$O42)</f>
+        <f t="shared" ref="Q42" si="100">($F$9*$O42*AC42+$G$9+$V42-X42)/(AC42*$O42)</f>
         <v>1.4081154116171335</v>
       </c>
       <c r="R42" s="10">
-        <f t="shared" ref="R42" si="94">($F$9*$O42*AD42+$G$9+$V42-Y42)/(AD42*$O42)</f>
+        <f t="shared" ref="R42" si="101">($F$9*$O42*AD42+$G$9+$V42-Y42)/(AD42*$O42)</f>
         <v>1.3231852511882727</v>
       </c>
       <c r="S42" s="10">
-        <f t="shared" ref="S42" si="95">($F$9*$O42*AE42+$G$9+$V42-Z42)/(AE42*$O42)</f>
+        <f t="shared" ref="S42" si="102">($F$9*$O42*AE42+$G$9+$V42-Z42)/(AE42*$O42)</f>
         <v>1.3643015559081899</v>
       </c>
       <c r="T42" s="10">
-        <f t="shared" ref="T42" si="96">($F$9*$O42*AF42+$G$9+$V42-AA42)/(AF42*$O42)</f>
+        <f t="shared" ref="T42" si="103">($F$9*$O42*AF42+$G$9+$V42-AA42)/(AF42*$O42)</f>
         <v>1.3746606919611613</v>
       </c>
       <c r="U42" s="19">
@@ -13791,29 +14039,25 @@
       </c>
     </row>
     <row r="43" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="H43" s="1">
-        <f t="shared" si="64"/>
-        <v>4</v>
-      </c>
       <c r="I43" s="7"/>
       <c r="J43" s="3">
         <f>$V43-W43-AB43+$F$11*AB43+$G$11</f>
         <v>1.9658366668792613</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" ref="K43" si="97">$V43-X43-AC43+$F$11*AC43+$G$11</f>
+        <f t="shared" ref="K43" si="104">$V43-X43-AC43+$F$11*AC43+$G$11</f>
         <v>1.7025064220944695</v>
       </c>
       <c r="L43" s="3">
-        <f t="shared" ref="L43" si="98">$V43-Y43-AD43+$F$11*AD43+$G$11</f>
+        <f t="shared" ref="L43" si="105">$V43-Y43-AD43+$F$11*AD43+$G$11</f>
         <v>1.3145514825473275</v>
       </c>
       <c r="M43" s="3">
-        <f t="shared" ref="M43" si="99">$V43-Z43-AE43+$F$11*AE43+$G$11</f>
+        <f t="shared" ref="M43" si="106">$V43-Z43-AE43+$F$11*AE43+$G$11</f>
         <v>1.6915796376557009</v>
       </c>
       <c r="N43" s="3">
-        <f t="shared" ref="N43" si="100">$V43-AA43-AF43+$F$11*AF43+$G$11</f>
+        <f t="shared" ref="N43" si="107">$V43-AA43-AF43+$F$11*AF43+$G$11</f>
         <v>1.7106242582676432</v>
       </c>
       <c r="O43" s="54">
@@ -13824,19 +14068,19 @@
         <v>1.5241634502872818</v>
       </c>
       <c r="Q43" s="10">
-        <f t="shared" ref="Q43" si="101">($F$11*$O43*AC43+$G$11+$V43-X43)/(AC43*$O43)</f>
+        <f t="shared" ref="Q43" si="108">($F$11*$O43*AC43+$G$11+$V43-X43)/(AC43*$O43)</f>
         <v>1.4244974991207413</v>
       </c>
       <c r="R43" s="10">
-        <f t="shared" ref="R43" si="102">($F$11*$O43*AD43+$G$11+$V43-Y43)/(AD43*$O43)</f>
+        <f t="shared" ref="R43" si="109">($F$11*$O43*AD43+$G$11+$V43-Y43)/(AD43*$O43)</f>
         <v>1.3102897955275843</v>
       </c>
       <c r="S43" s="10">
-        <f t="shared" ref="S43" si="103">($F$11*$O43*AE43+$G$11+$V43-Z43)/(AE43*$O43)</f>
+        <f t="shared" ref="S43" si="110">($F$11*$O43*AE43+$G$11+$V43-Z43)/(AE43*$O43)</f>
         <v>1.4208670002670722</v>
       </c>
       <c r="T43" s="10">
-        <f t="shared" ref="T43" si="104">($F$11*$O43*AF43+$G$11+$V43-AA43)/(AF43*$O43)</f>
+        <f t="shared" ref="T43" si="111">($F$11*$O43*AF43+$G$11+$V43-AA43)/(AF43*$O43)</f>
         <v>1.4543101031250472</v>
       </c>
       <c r="U43" s="19">
@@ -13982,39 +14226,39 @@
         <v>4.8882969999999988</v>
       </c>
       <c r="X45" s="3">
-        <f t="shared" ref="X45:AA45" si="105">$V38-X38</f>
+        <f t="shared" ref="X45:AA45" si="112">$V38-X38</f>
         <v>5.1865819999999996</v>
       </c>
       <c r="Y45" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>5.0390169999999994</v>
       </c>
       <c r="Z45" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>4.8720409999999994</v>
       </c>
       <c r="AA45" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>4.7611489999999996</v>
       </c>
       <c r="AB45" s="3">
-        <f>AB38/(V38-W38)</f>
+        <f t="shared" ref="AB45:AB50" si="113">AB38/(V38-W38)</f>
         <v>0.47357712392400475</v>
       </c>
       <c r="AC45" s="3">
-        <f>AC38/(V38-X38)</f>
+        <f t="shared" ref="AC45:AC50" si="114">AC38/(V38-X38)</f>
         <v>0.49934052155651065</v>
       </c>
       <c r="AD45" s="3">
-        <f>AD38/(V38-Y38)</f>
+        <f t="shared" ref="AD45:AD50" si="115">AD38/(V38-Y38)</f>
         <v>0.56737565786458954</v>
       </c>
       <c r="AE45" s="3">
-        <f>AE38/(V38-Z38)</f>
+        <f t="shared" ref="AE45:AE50" si="116">AE38/(V38-Z38)</f>
         <v>0.53446562519165797</v>
       </c>
       <c r="AF45" s="3">
-        <f>AF38/(V38-AA38)</f>
+        <f t="shared" ref="AF45:AF50" si="117">AF38/(V38-AA38)</f>
         <v>0.48597006269889481</v>
       </c>
       <c r="AG45" s="7"/>
@@ -14049,43 +14293,43 @@
       <c r="U46" s="19"/>
       <c r="V46" s="7"/>
       <c r="W46" s="3">
-        <f t="shared" ref="W46:AA46" si="106">$V39-W39</f>
+        <f t="shared" ref="W46:AA46" si="118">$V39-W39</f>
         <v>2.5506619999999991</v>
       </c>
       <c r="X46" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="118"/>
         <v>2.8647169999999988</v>
       </c>
       <c r="Y46" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="118"/>
         <v>3.2141259999999985</v>
       </c>
       <c r="Z46" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="118"/>
         <v>2.7875069999999997</v>
       </c>
       <c r="AA46" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="118"/>
         <v>2.376417</v>
       </c>
       <c r="AB46" s="3">
-        <f>AB39/(V39-W39)</f>
+        <f t="shared" si="113"/>
         <v>1.1011895505807556</v>
       </c>
       <c r="AC46" s="3">
-        <f>AC39/(V39-X39)</f>
+        <f t="shared" si="114"/>
         <v>1.1667037012135131</v>
       </c>
       <c r="AD46" s="3">
-        <f>AD39/(V39-Y39)</f>
+        <f t="shared" si="115"/>
         <v>1.1776605491645014</v>
       </c>
       <c r="AE46" s="3">
-        <f>AE39/(V39-Z39)</f>
+        <f t="shared" si="116"/>
         <v>1.2015438272507621</v>
       </c>
       <c r="AF46" s="3">
-        <f>AF39/(V39-AA39)</f>
+        <f t="shared" si="117"/>
         <v>1.1845211386434746</v>
       </c>
       <c r="AG46" s="7"/>
@@ -14120,43 +14364,43 @@
       <c r="U47" s="19"/>
       <c r="V47" s="7"/>
       <c r="W47" s="3">
-        <f t="shared" ref="W47:AA47" si="107">$V40-W40</f>
+        <f t="shared" ref="W47:AA47" si="119">$V40-W40</f>
         <v>2.6542750000000019</v>
       </c>
       <c r="X47" s="3">
-        <f t="shared" si="107"/>
+        <f t="shared" si="119"/>
         <v>3.2870310000000007</v>
       </c>
       <c r="Y47" s="3">
-        <f t="shared" si="107"/>
+        <f t="shared" si="119"/>
         <v>3.6459600000000005</v>
       </c>
       <c r="Z47" s="3">
-        <f t="shared" si="107"/>
+        <f t="shared" si="119"/>
         <v>3.3104900000000015</v>
       </c>
       <c r="AA47" s="3">
-        <f t="shared" si="107"/>
+        <f t="shared" si="119"/>
         <v>2.7968489999999999</v>
       </c>
       <c r="AB47" s="3">
-        <f>AB40/(V40-W40)</f>
+        <f t="shared" si="113"/>
         <v>1.2411491723774655</v>
       </c>
       <c r="AC47" s="3">
-        <f>AC40/(V40-X40)</f>
+        <f t="shared" si="114"/>
         <v>1.2072733277107941</v>
       </c>
       <c r="AD47" s="3">
-        <f>AD40/(V40-Y40)</f>
+        <f t="shared" si="115"/>
         <v>1.2333148899322974</v>
       </c>
       <c r="AE47" s="3">
-        <f>AE40/(V40-Z40)</f>
+        <f t="shared" si="116"/>
         <v>1.2020285553483376</v>
       </c>
       <c r="AF47" s="3">
-        <f>AF40/(V40-AA40)</f>
+        <f t="shared" si="117"/>
         <v>1.1763350252460503</v>
       </c>
       <c r="AG47" s="7"/>
@@ -14191,43 +14435,43 @@
       <c r="U48" s="19"/>
       <c r="V48" s="7"/>
       <c r="W48" s="3">
-        <f t="shared" ref="W48:AA48" si="108">$V41-W41</f>
+        <f t="shared" ref="W48:AA48" si="120">$V41-W41</f>
         <v>2.0587419999999987</v>
       </c>
       <c r="X48" s="3">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>3.811910000000001</v>
       </c>
       <c r="Y48" s="3">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>4.547978999999998</v>
       </c>
       <c r="Z48" s="3">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>3.9112340000000003</v>
       </c>
       <c r="AA48" s="3">
-        <f t="shared" si="108"/>
+        <f t="shared" si="120"/>
         <v>3.0949460000000002</v>
       </c>
       <c r="AB48" s="3">
-        <f>AB41/(V41-W41)</f>
+        <f t="shared" si="113"/>
         <v>1.7992722456060168</v>
       </c>
       <c r="AC48" s="3">
-        <f>AC41/(V41-X41)</f>
+        <f t="shared" si="114"/>
         <v>1.1867392769171279</v>
       </c>
       <c r="AD48" s="3">
-        <f>AD41/(V41-Y41)</f>
+        <f t="shared" si="115"/>
         <v>1.1639026273685678</v>
       </c>
       <c r="AE48" s="3">
-        <f>AE41/(V41-Z41)</f>
+        <f t="shared" si="116"/>
         <v>1.157587636523721</v>
       </c>
       <c r="AF48" s="3">
-        <f>AF41/(V41-AA41)</f>
+        <f t="shared" si="117"/>
         <v>1.2007196689652646</v>
       </c>
       <c r="AG48" s="7"/>
@@ -14262,43 +14506,43 @@
       <c r="U49" s="19"/>
       <c r="V49" s="7"/>
       <c r="W49" s="3">
-        <f t="shared" ref="W49:AA49" si="109">$V42-W42</f>
+        <f t="shared" ref="W49:AA49" si="121">$V42-W42</f>
         <v>3.243746999999999</v>
       </c>
       <c r="X49" s="3">
-        <f t="shared" si="109"/>
+        <f t="shared" si="121"/>
         <v>3.5927930000000003</v>
       </c>
       <c r="Y49" s="3">
-        <f t="shared" si="109"/>
+        <f t="shared" si="121"/>
         <v>3.6136109999999988</v>
       </c>
       <c r="Z49" s="3">
-        <f t="shared" si="109"/>
+        <f t="shared" si="121"/>
         <v>3.4091109999999993</v>
       </c>
       <c r="AA49" s="3">
-        <f t="shared" si="109"/>
+        <f t="shared" si="121"/>
         <v>3.0950820000000014</v>
       </c>
       <c r="AB49" s="3">
-        <f>AB42/(V42-W42)</f>
+        <f t="shared" si="113"/>
         <v>1.1232336944987604</v>
       </c>
       <c r="AC49" s="3">
-        <f>AC42/(V42-X42)</f>
+        <f t="shared" si="114"/>
         <v>1.1369687702643569</v>
       </c>
       <c r="AD49" s="3">
-        <f>AD42/(V42-Y42)</f>
+        <f t="shared" si="115"/>
         <v>1.2584925067622559</v>
       </c>
       <c r="AE49" s="3">
-        <f>AE42/(V42-Z42)</f>
+        <f t="shared" si="116"/>
         <v>1.1965761963076973</v>
       </c>
       <c r="AF49" s="3">
-        <f>AF42/(V42-AA42)</f>
+        <f t="shared" si="117"/>
         <v>1.1819256421922935</v>
       </c>
       <c r="AG49" s="7"/>
@@ -14333,43 +14577,43 @@
       <c r="U50" s="19"/>
       <c r="V50" s="7"/>
       <c r="W50" s="3">
-        <f t="shared" ref="W50:AA50" si="110">$V43-W43</f>
+        <f t="shared" ref="W50:AA50" si="122">$V43-W43</f>
         <v>3.693476000000004</v>
       </c>
       <c r="X50" s="3">
-        <f t="shared" si="110"/>
+        <f t="shared" si="122"/>
         <v>3.5473140000000001</v>
       </c>
       <c r="Y50" s="3">
-        <f t="shared" si="110"/>
+        <f t="shared" si="122"/>
         <v>3.2610720000000057</v>
       </c>
       <c r="Z50" s="3">
-        <f t="shared" si="110"/>
+        <f t="shared" si="122"/>
         <v>3.5402750000000012</v>
       </c>
       <c r="AA50" s="3">
-        <f t="shared" si="110"/>
+        <f t="shared" si="122"/>
         <v>3.4449710000000024</v>
       </c>
       <c r="AB50" s="3">
-        <f>AB43/(V43-W43)</f>
+        <f t="shared" si="113"/>
         <v>1.0154193040020527</v>
       </c>
       <c r="AC50" s="3">
-        <f>AC43/(V43-X43)</f>
+        <f t="shared" si="114"/>
         <v>1.1306130394474918</v>
       </c>
       <c r="AD50" s="3">
-        <f>AD43/(V43-Y43)</f>
+        <f t="shared" si="115"/>
         <v>1.2991213453436272</v>
       </c>
       <c r="AE50" s="3">
-        <f>AE43/(V43-Z43)</f>
+        <f t="shared" si="116"/>
         <v>1.1352998380482699</v>
       </c>
       <c r="AF50" s="3">
-        <f>AF43/(V43-AA43)</f>
+        <f t="shared" si="117"/>
         <v>1.0929911895396238</v>
       </c>
       <c r="AG50" s="7"/>
@@ -14503,15 +14747,15 @@
     </row>
     <row r="54" spans="8:47" x14ac:dyDescent="0.25">
       <c r="K54" s="3">
-        <f t="shared" ref="K54" si="111">$V54-X54-AC54+$F$3*AC54+$G$3</f>
+        <f t="shared" ref="K54" si="123">$V54-X54-AC54+$F$3*AC54+$G$3</f>
         <v>0.96229070134015982</v>
       </c>
       <c r="L54" s="3">
-        <f t="shared" ref="L54" si="112">$V54-Y54-AD54+$F$3*AD54+$G$3</f>
+        <f t="shared" ref="L54" si="124">$V54-Y54-AD54+$F$3*AD54+$G$3</f>
         <v>0.90044367716823537</v>
       </c>
       <c r="M54" s="3">
-        <f t="shared" ref="M54" si="113">$V54-Z54-AE54+$F$3*AE54+$G$3</f>
+        <f t="shared" ref="M54" si="125">$V54-Z54-AE54+$F$3*AE54+$G$3</f>
         <v>1.0082893317792894</v>
       </c>
       <c r="O54" s="54">
@@ -14519,11 +14763,11 @@
       </c>
       <c r="P54" s="10"/>
       <c r="Q54" s="10">
-        <f t="shared" ref="Q54" si="114">($F$3*$O54*AC54+$G$3+$V54-X54)/(AC54*$O54)</f>
+        <f t="shared" ref="Q54" si="126">($F$3*$O54*AC54+$G$3+$V54-X54)/(AC54*$O54)</f>
         <v>1.2650594745258625</v>
       </c>
       <c r="R54" s="10">
-        <f t="shared" ref="R54" si="115">($F$3*$O54*AD54+$G$3+$V54-Y54)/(AD54*$O54)</f>
+        <f t="shared" ref="R54" si="127">($F$3*$O54*AD54+$G$3+$V54-Y54)/(AD54*$O54)</f>
         <v>1.2142645998786747</v>
       </c>
       <c r="S54" s="10">
@@ -14595,15 +14839,15 @@
     </row>
     <row r="55" spans="8:47" x14ac:dyDescent="0.25">
       <c r="K55" s="3">
-        <f t="shared" ref="K55" si="116">$V55-X55-AC55+$F$4*AC55+$G$4</f>
+        <f t="shared" ref="K55" si="128">$V55-X55-AC55+$F$4*AC55+$G$4</f>
         <v>1.1272641021445908</v>
       </c>
       <c r="L55" s="3">
-        <f t="shared" ref="L55" si="117">$V55-Y55-AD55+$F$4*AD55+$G$4</f>
+        <f t="shared" ref="L55" si="129">$V55-Y55-AD55+$F$4*AD55+$G$4</f>
         <v>1.0078938219627807</v>
       </c>
       <c r="M55" s="3">
-        <f t="shared" ref="M55" si="118">$V55-Z55-AE55+$F$4*AE55+$G$4</f>
+        <f t="shared" ref="M55" si="130">$V55-Z55-AE55+$F$4*AE55+$G$4</f>
         <v>1.0574509622795039</v>
       </c>
       <c r="O55" s="54">
@@ -14611,15 +14855,15 @@
       </c>
       <c r="P55" s="10"/>
       <c r="Q55" s="10">
-        <f t="shared" ref="Q55" si="119">($F$4*$O55*AC55+$G$4+$V55-X55)/(AC55*$O55)</f>
+        <f t="shared" ref="Q55" si="131">($F$4*$O55*AC55+$G$4+$V55-X55)/(AC55*$O55)</f>
         <v>1.269397222041007</v>
       </c>
       <c r="R55" s="10">
-        <f t="shared" ref="R55" si="120">($F$4*$O55*AD55+$G$4+$V55-Y55)/(AD55*$O55)</f>
+        <f t="shared" ref="R55" si="132">($F$4*$O55*AD55+$G$4+$V55-Y55)/(AD55*$O55)</f>
         <v>1.2102786359646869</v>
       </c>
       <c r="S55" s="10">
-        <f t="shared" ref="S55" si="121">($F$4*$O55*AE55+$G$4+$V55-Z55)/(AE55*$O55)</f>
+        <f t="shared" ref="S55" si="133">($F$4*$O55*AE55+$G$4+$V55-Z55)/(AE55*$O55)</f>
         <v>1.2528331727219506</v>
       </c>
       <c r="T55" s="10"/>
@@ -14687,15 +14931,15 @@
     </row>
     <row r="56" spans="8:47" x14ac:dyDescent="0.25">
       <c r="K56" s="3">
-        <f t="shared" ref="K56" si="122">$V56-X56-AC56+$F$5*AC56+$G$5</f>
+        <f t="shared" ref="K56" si="134">$V56-X56-AC56+$F$5*AC56+$G$5</f>
         <v>1.4260362720684396</v>
       </c>
       <c r="L56" s="3">
-        <f t="shared" ref="L56" si="123">$V56-Y56-AD56+$F$5*AD56+$G$5</f>
+        <f t="shared" ref="L56" si="135">$V56-Y56-AD56+$F$5*AD56+$G$5</f>
         <v>1.4268969486843339</v>
       </c>
       <c r="M56" s="3">
-        <f t="shared" ref="M56" si="124">$V56-Z56-AE56+$F$5*AE56+$G$5</f>
+        <f t="shared" ref="M56" si="136">$V56-Z56-AE56+$F$5*AE56+$G$5</f>
         <v>1.3147712959537765</v>
       </c>
       <c r="O56" s="54">
@@ -14703,15 +14947,15 @@
       </c>
       <c r="P56" s="10"/>
       <c r="Q56" s="10">
-        <f t="shared" ref="Q56" si="125">($F$5*$O56*AC56+$G$5+$V56-X56)/(AC56*$O56)</f>
+        <f t="shared" ref="Q56" si="137">($F$5*$O56*AC56+$G$5+$V56-X56)/(AC56*$O56)</f>
         <v>1.2954895313643047</v>
       </c>
       <c r="R56" s="10">
-        <f t="shared" ref="R56" si="126">($F$5*$O56*AD56+$G$5+$V56-Y56)/(AD56*$O56)</f>
+        <f t="shared" ref="R56" si="138">($F$5*$O56*AD56+$G$5+$V56-Y56)/(AD56*$O56)</f>
         <v>1.2590892143446368</v>
       </c>
       <c r="S56" s="10">
-        <f t="shared" ref="S56" si="127">($F$5*$O56*AE56+$G$5+$V56-Z56)/(AE56*$O56)</f>
+        <f t="shared" ref="S56" si="139">($F$5*$O56*AE56+$G$5+$V56-Z56)/(AE56*$O56)</f>
         <v>1.2727348712735282</v>
       </c>
       <c r="T56" s="10"/>
@@ -14779,15 +15023,15 @@
     </row>
     <row r="57" spans="8:47" x14ac:dyDescent="0.25">
       <c r="K57" s="3">
-        <f t="shared" ref="K57" si="128">$V57-X57-AC57+$F$7*AC57+$G$7</f>
+        <f t="shared" ref="K57" si="140">$V57-X57-AC57+$F$7*AC57+$G$7</f>
         <v>2.3739987846376387</v>
       </c>
       <c r="L57" s="3">
-        <f t="shared" ref="L57" si="129">$V57-Y57-AD57+$F$7*AD57+$G$7</f>
+        <f t="shared" ref="L57" si="141">$V57-Y57-AD57+$F$7*AD57+$G$7</f>
         <v>2.3234685447768273</v>
       </c>
       <c r="M57" s="3">
-        <f t="shared" ref="M57" si="130">$V57-Z57-AE57+$F$7*AE57+$G$7</f>
+        <f t="shared" ref="M57" si="142">$V57-Z57-AE57+$F$7*AE57+$G$7</f>
         <v>2.1545188755120863</v>
       </c>
       <c r="O57" s="54">
@@ -14795,15 +15039,15 @@
       </c>
       <c r="P57" s="10"/>
       <c r="Q57" s="10">
-        <f t="shared" ref="Q57" si="131">($F$7*$O57*AC57+$G$7+$V57-X57)/(AC57*$O57)</f>
+        <f t="shared" ref="Q57" si="143">($F$7*$O57*AC57+$G$7+$V57-X57)/(AC57*$O57)</f>
         <v>1.415562715474123</v>
       </c>
       <c r="R57" s="10">
-        <f t="shared" ref="R57" si="132">($F$7*$O57*AD57+$G$7+$V57-Y57)/(AD57*$O57)</f>
+        <f t="shared" ref="R57" si="144">($F$7*$O57*AD57+$G$7+$V57-Y57)/(AD57*$O57)</f>
         <v>1.3548687199920444</v>
       </c>
       <c r="S57" s="10">
-        <f t="shared" ref="S57" si="133">($F$7*$O57*AE57+$G$7+$V57-Z57)/(AE57*$O57)</f>
+        <f t="shared" ref="S57" si="145">($F$7*$O57*AE57+$G$7+$V57-Z57)/(AE57*$O57)</f>
         <v>1.3776964760730417</v>
       </c>
       <c r="T57" s="10"/>
@@ -14907,11 +15151,11 @@
         <v>3.0920985806451604</v>
       </c>
       <c r="Y59" s="3">
-        <f t="shared" ref="Y59:Z59" si="134">$V54-Y54</f>
+        <f t="shared" ref="Y59:Z59" si="146">$V54-Y54</f>
         <v>3.3658221612903203</v>
       </c>
       <c r="Z59" s="3">
-        <f t="shared" si="134"/>
+        <f t="shared" si="146"/>
         <v>3.1428777096774203</v>
       </c>
       <c r="AA59" s="3"/>
@@ -14950,29 +15194,29 @@
       <c r="V60" s="43"/>
       <c r="W60" s="3"/>
       <c r="X60" s="3">
-        <f t="shared" ref="X60:Z62" si="135">$V55-X55</f>
+        <f t="shared" ref="X60:Z62" si="147">$V55-X55</f>
         <v>3.3727642903225998</v>
       </c>
       <c r="Y60" s="3">
-        <f t="shared" si="135"/>
+        <f t="shared" si="147"/>
         <v>3.5868310322581003</v>
       </c>
       <c r="Z60" s="3">
-        <f t="shared" si="135"/>
+        <f t="shared" si="147"/>
         <v>3.3018622258065005</v>
       </c>
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
       <c r="AC60" s="3">
-        <f t="shared" ref="AC60:AC62" si="136">AC55/(V55-X55)</f>
+        <f t="shared" ref="AC60:AC62" si="148">AC55/(V55-X55)</f>
         <v>1.2406422670834312</v>
       </c>
       <c r="AD60" s="3">
-        <f t="shared" ref="AD60:AE62" si="137">AD55/($V55-Y55)</f>
+        <f t="shared" ref="AD60:AE62" si="149">AD55/($V55-Y55)</f>
         <v>1.3363146003567996</v>
       </c>
       <c r="AE60" s="3">
-        <f t="shared" si="137"/>
+        <f t="shared" si="149"/>
         <v>1.266680936229037</v>
       </c>
       <c r="AF60" s="3"/>
@@ -14997,29 +15241,29 @@
       <c r="V61" s="43"/>
       <c r="W61" s="3"/>
       <c r="X61" s="3">
-        <f t="shared" si="135"/>
+        <f t="shared" si="147"/>
         <v>3.9303070322580993</v>
       </c>
       <c r="Y61" s="3">
-        <f t="shared" si="135"/>
+        <f t="shared" si="147"/>
         <v>4.284724935483899</v>
       </c>
       <c r="Z61" s="3">
-        <f t="shared" si="135"/>
+        <f t="shared" si="147"/>
         <v>3.8162819354839002</v>
       </c>
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
       <c r="AC61" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="148"/>
         <v>1.227897158949683</v>
       </c>
       <c r="AD61" s="3">
-        <f t="shared" si="137"/>
+        <f t="shared" si="149"/>
         <v>1.285346822391338</v>
       </c>
       <c r="AE61" s="3">
-        <f t="shared" si="137"/>
+        <f t="shared" si="149"/>
         <v>1.2631912043422682</v>
       </c>
       <c r="AF61" s="3"/>
@@ -15044,29 +15288,29 @@
       <c r="V62" s="43"/>
       <c r="W62" s="3"/>
       <c r="X62" s="3">
-        <f t="shared" si="135"/>
+        <f t="shared" si="147"/>
         <v>5.2308981612902983</v>
       </c>
       <c r="Y62" s="3">
-        <f t="shared" si="135"/>
+        <f t="shared" si="147"/>
         <v>5.5970974516128997</v>
       </c>
       <c r="Z62" s="3">
-        <f t="shared" si="135"/>
+        <f t="shared" si="147"/>
         <v>5.0072408064515983</v>
       </c>
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
       <c r="AC62" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="148"/>
         <v>1.0921131887527682</v>
       </c>
       <c r="AD62" s="3">
-        <f t="shared" si="137"/>
+        <f t="shared" si="149"/>
         <v>1.169785432738782</v>
       </c>
       <c r="AE62" s="3">
-        <f t="shared" si="137"/>
+        <f t="shared" si="149"/>
         <v>1.1392233885296406</v>
       </c>
       <c r="AF62" s="3"/>
@@ -15179,15 +15423,15 @@
     </row>
     <row r="66" spans="11:47" x14ac:dyDescent="0.25">
       <c r="K66" s="3">
-        <f t="shared" ref="K66" si="138">$V66-X66-AC66+$F$3*AC66+$G$3</f>
+        <f t="shared" ref="K66" si="150">$V66-X66-AC66+$F$3*AC66+$G$3</f>
         <v>0.77662372977618443</v>
       </c>
       <c r="L66" s="3">
-        <f t="shared" ref="L66" si="139">$V66-Y66-AD66+$F$3*AD66+$G$3</f>
+        <f t="shared" ref="L66" si="151">$V66-Y66-AD66+$F$3*AD66+$G$3</f>
         <v>0.56371162789480556</v>
       </c>
       <c r="M66" s="3">
-        <f t="shared" ref="M66" si="140">$V66-Z66-AE66+$F$3*AE66+$G$3</f>
+        <f t="shared" ref="M66" si="152">$V66-Z66-AE66+$F$3*AE66+$G$3</f>
         <v>0.73582727025208272</v>
       </c>
       <c r="O66" s="54">
@@ -15195,11 +15439,11 @@
       </c>
       <c r="P66" s="10"/>
       <c r="Q66" s="10">
-        <f t="shared" ref="Q66" si="141">($F$3*$O66*AC66+$G$3+$V66-X66)/(AC66*$O66)</f>
+        <f t="shared" ref="Q66" si="153">($F$3*$O66*AC66+$G$3+$V66-X66)/(AC66*$O66)</f>
         <v>1.1953860182112626</v>
       </c>
       <c r="R66" s="10">
-        <f t="shared" ref="R66" si="142">($F$3*$O66*AD66+$G$3+$V66-Y66)/(AD66*$O66)</f>
+        <f t="shared" ref="R66" si="154">($F$3*$O66*AD66+$G$3+$V66-Y66)/(AD66*$O66)</f>
         <v>1.1200440547773722</v>
       </c>
       <c r="S66" s="10">
@@ -15270,15 +15514,15 @@
     </row>
     <row r="67" spans="11:47" x14ac:dyDescent="0.25">
       <c r="K67" s="3">
-        <f t="shared" ref="K67" si="143">$V67-X67-AC67+$F$4*AC67+$G$4</f>
+        <f t="shared" ref="K67" si="155">$V67-X67-AC67+$F$4*AC67+$G$4</f>
         <v>2.1220377838778237</v>
       </c>
       <c r="L67" s="3">
-        <f t="shared" ref="L67" si="144">$V67-Y67-AD67+$F$4*AD67+$G$4</f>
+        <f t="shared" ref="L67" si="156">$V67-Y67-AD67+$F$4*AD67+$G$4</f>
         <v>1.6655896275569795</v>
       </c>
       <c r="M67" s="3">
-        <f t="shared" ref="M67" si="145">$V67-Z67-AE67+$F$4*AE67+$G$4</f>
+        <f t="shared" ref="M67" si="157">$V67-Z67-AE67+$F$4*AE67+$G$4</f>
         <v>1.9119079315449521</v>
       </c>
       <c r="O67" s="54">
@@ -15286,15 +15530,15 @@
       </c>
       <c r="P67" s="10"/>
       <c r="Q67" s="10">
-        <f t="shared" ref="Q67" si="146">($F$4*$O67*AC67+$G$4+$V67-X67)/(AC67*$O67)</f>
+        <f t="shared" ref="Q67" si="158">($F$4*$O67*AC67+$G$4+$V67-X67)/(AC67*$O67)</f>
         <v>1.3607400536371927</v>
       </c>
       <c r="R67" s="10">
-        <f t="shared" ref="R67" si="147">($F$4*$O67*AD67+$G$4+$V67-Y67)/(AD67*$O67)</f>
+        <f t="shared" ref="R67" si="159">($F$4*$O67*AD67+$G$4+$V67-Y67)/(AD67*$O67)</f>
         <v>1.2474054430450012</v>
       </c>
       <c r="S67" s="10">
-        <f t="shared" ref="S67" si="148">($F$4*$O67*AE67+$G$4+$V67-Z67)/(AE67*$O67)</f>
+        <f t="shared" ref="S67" si="160">($F$4*$O67*AE67+$G$4+$V67-Z67)/(AE67*$O67)</f>
         <v>1.3344179110172918</v>
       </c>
       <c r="U67" s="21">
@@ -15361,15 +15605,15 @@
     </row>
     <row r="68" spans="11:47" x14ac:dyDescent="0.25">
       <c r="K68" s="3">
-        <f t="shared" ref="K68" si="149">$V68-X68-AC68+$F$5*AC68+$G$5</f>
+        <f t="shared" ref="K68" si="161">$V68-X68-AC68+$F$5*AC68+$G$5</f>
         <v>2.8340113258669906</v>
       </c>
       <c r="L68" s="3">
-        <f t="shared" ref="L68" si="150">$V68-Y68-AD68+$F$5*AD68+$G$5</f>
+        <f t="shared" ref="L68" si="162">$V68-Y68-AD68+$F$5*AD68+$G$5</f>
         <v>2.580507835937611</v>
       </c>
       <c r="M68" s="3">
-        <f t="shared" ref="M68" si="151">$V68-Z68-AE68+$F$5*AE68+$G$5</f>
+        <f t="shared" ref="M68" si="163">$V68-Z68-AE68+$F$5*AE68+$G$5</f>
         <v>2.5597245030057105</v>
       </c>
       <c r="O68" s="54">
@@ -15377,15 +15621,15 @@
       </c>
       <c r="P68" s="10"/>
       <c r="Q68" s="10">
-        <f t="shared" ref="Q68" si="152">($F$5*$O68*AC68+$G$5+$V68-X68)/(AC68*$O68)</f>
+        <f t="shared" ref="Q68" si="164">($F$5*$O68*AC68+$G$5+$V68-X68)/(AC68*$O68)</f>
         <v>1.4291659698347006</v>
       </c>
       <c r="R68" s="10">
-        <f t="shared" ref="R68" si="153">($F$5*$O68*AD68+$G$5+$V68-Y68)/(AD68*$O68)</f>
+        <f t="shared" ref="R68" si="165">($F$5*$O68*AD68+$G$5+$V68-Y68)/(AD68*$O68)</f>
         <v>1.3374708430306843</v>
       </c>
       <c r="S68" s="10">
-        <f t="shared" ref="S68" si="154">($F$5*$O68*AE68+$G$5+$V68-Z68)/(AE68*$O68)</f>
+        <f t="shared" ref="S68" si="166">($F$5*$O68*AE68+$G$5+$V68-Z68)/(AE68*$O68)</f>
         <v>1.389287400239712</v>
       </c>
       <c r="U68" s="21">
@@ -15464,11 +15708,11 @@
         <v>3.10844170967742</v>
       </c>
       <c r="Y70" s="3">
-        <f t="shared" ref="Y70:Z70" si="155">$V66-Y66</f>
+        <f t="shared" ref="Y70:Z70" si="167">$V66-Y66</f>
         <v>3.3185353225806402</v>
       </c>
       <c r="Z70" s="3">
-        <f t="shared" si="155"/>
+        <f t="shared" si="167"/>
         <v>3.07870783870968</v>
       </c>
       <c r="AA70" s="3"/>
@@ -15478,69 +15722,69 @@
         <v>1.2787170208809027</v>
       </c>
       <c r="AD70" s="3">
-        <f t="shared" ref="AD70:AE72" si="156">AD66/($V66-Y66)</f>
+        <f t="shared" ref="AD70:AE72" si="168">AD66/($V66-Y66)</f>
         <v>1.4150438307922397</v>
       </c>
       <c r="AE70" s="3">
-        <f t="shared" si="156"/>
+        <f t="shared" si="168"/>
         <v>1.2971918162189182</v>
       </c>
       <c r="AF70" s="3"/>
     </row>
     <row r="71" spans="11:47" x14ac:dyDescent="0.25">
       <c r="X71" s="22">
-        <f t="shared" ref="X71:Z71" si="157">$V67-X67</f>
+        <f t="shared" ref="X71:Z71" si="169">$V67-X67</f>
         <v>5.2976499032258104</v>
       </c>
       <c r="Y71" s="22">
-        <f t="shared" si="157"/>
+        <f t="shared" si="169"/>
         <v>5.30666241935484</v>
       </c>
       <c r="Z71" s="22">
-        <f t="shared" si="157"/>
+        <f t="shared" si="169"/>
         <v>4.9969580000000011</v>
       </c>
       <c r="AA71" s="3"/>
       <c r="AB71" s="3"/>
       <c r="AC71" s="3">
-        <f t="shared" ref="AC71:AC72" si="158">AC67/($V67-X67)</f>
+        <f t="shared" ref="AC71:AC72" si="170">AC67/($V67-X67)</f>
         <v>1.1103898736059743</v>
       </c>
       <c r="AD71" s="3">
-        <f t="shared" si="156"/>
+        <f t="shared" si="168"/>
         <v>1.2686367748247804</v>
       </c>
       <c r="AE71" s="3">
-        <f t="shared" si="156"/>
+        <f t="shared" si="168"/>
         <v>1.144120444168554</v>
       </c>
       <c r="AF71" s="3"/>
     </row>
     <row r="72" spans="11:47" x14ac:dyDescent="0.25">
       <c r="X72" s="22">
-        <f t="shared" ref="X72:Z72" si="159">$V68-X68</f>
+        <f t="shared" ref="X72:Z72" si="171">$V68-X68</f>
         <v>6.2606563225806013</v>
       </c>
       <c r="Y72" s="22">
-        <f t="shared" si="159"/>
+        <f t="shared" si="171"/>
         <v>6.5484171290323001</v>
       </c>
       <c r="Z72" s="22">
-        <f t="shared" si="159"/>
+        <f t="shared" si="171"/>
         <v>5.9717768709676999</v>
       </c>
       <c r="AA72" s="3"/>
       <c r="AB72" s="3"/>
       <c r="AC72" s="3">
-        <f t="shared" si="158"/>
+        <f t="shared" si="170"/>
         <v>1.054766771695685</v>
       </c>
       <c r="AD72" s="3">
-        <f t="shared" si="156"/>
+        <f t="shared" si="168"/>
         <v>1.167703521517339</v>
       </c>
       <c r="AE72" s="3">
-        <f t="shared" si="156"/>
+        <f t="shared" si="168"/>
         <v>1.1010810944511586</v>
       </c>
       <c r="AF72" s="3"/>
@@ -15724,29 +15968,29 @@
       <c r="G1" s="135"/>
       <c r="H1" s="40"/>
       <c r="I1" s="11"/>
-      <c r="J1" s="155" t="s">
+      <c r="J1" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="156"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="158"/>
       <c r="O1" s="13"/>
-      <c r="P1" s="157" t="s">
+      <c r="P1" s="159" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="157"/>
-      <c r="S1" s="157"/>
-      <c r="T1" s="158"/>
-      <c r="V1" s="151" t="s">
+      <c r="Q1" s="159"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="159"/>
+      <c r="T1" s="160"/>
+      <c r="V1" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="151"/>
+      <c r="W1" s="153"/>
+      <c r="X1" s="153"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="153"/>
+      <c r="AA1" s="153"/>
       <c r="AB1" s="5" t="s">
         <v>18</v>
       </c>
@@ -15754,27 +15998,27 @@
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
       <c r="AF1" s="5"/>
-      <c r="AG1" s="151" t="s">
+      <c r="AG1" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="151"/>
-      <c r="AJ1" s="151"/>
-      <c r="AK1" s="151"/>
-      <c r="AL1" s="151" t="s">
+      <c r="AH1" s="153"/>
+      <c r="AI1" s="153"/>
+      <c r="AJ1" s="153"/>
+      <c r="AK1" s="153"/>
+      <c r="AL1" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="AM1" s="151"/>
-      <c r="AN1" s="151"/>
-      <c r="AO1" s="151"/>
-      <c r="AP1" s="151"/>
-      <c r="AQ1" s="151" t="s">
+      <c r="AM1" s="153"/>
+      <c r="AN1" s="153"/>
+      <c r="AO1" s="153"/>
+      <c r="AP1" s="153"/>
+      <c r="AQ1" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="151"/>
-      <c r="AS1" s="151"/>
-      <c r="AT1" s="151"/>
-      <c r="AU1" s="151"/>
+      <c r="AR1" s="153"/>
+      <c r="AS1" s="153"/>
+      <c r="AT1" s="153"/>
+      <c r="AU1" s="153"/>
     </row>
     <row r="2" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -15960,7 +16204,7 @@
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="152" t="s">
+      <c r="O3" s="154" t="s">
         <v>10</v>
       </c>
       <c r="P3" s="9"/>
@@ -16024,7 +16268,7 @@
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="152"/>
+      <c r="O4" s="154"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
@@ -16084,7 +16328,7 @@
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="152"/>
+      <c r="O5" s="154"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
@@ -17462,14 +17706,14 @@
     </row>
     <row r="18" spans="1:47" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="76"/>
-      <c r="B18" s="153" t="s">
+      <c r="B18" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="153"/>
-      <c r="D18" s="153"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="154"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="156"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -17509,12 +17753,12 @@
     </row>
     <row r="19" spans="1:47" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="76"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="154"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="156"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -17558,12 +17802,12 @@
     </row>
     <row r="20" spans="1:47" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="76"/>
-      <c r="B20" s="153"/>
-      <c r="C20" s="153"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="154"/>
+      <c r="B20" s="155"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="156"/>
       <c r="H20" s="1"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -19130,29 +19374,29 @@
       <c r="G1" s="135"/>
       <c r="H1" s="40"/>
       <c r="I1" s="11"/>
-      <c r="J1" s="155" t="s">
+      <c r="J1" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="156"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="158"/>
       <c r="O1" s="13"/>
-      <c r="P1" s="157" t="s">
+      <c r="P1" s="159" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="157"/>
-      <c r="S1" s="157"/>
-      <c r="T1" s="158"/>
-      <c r="V1" s="151" t="s">
+      <c r="Q1" s="159"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="159"/>
+      <c r="T1" s="160"/>
+      <c r="V1" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="151"/>
+      <c r="W1" s="153"/>
+      <c r="X1" s="153"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="153"/>
+      <c r="AA1" s="153"/>
       <c r="AB1" s="5" t="s">
         <v>18</v>
       </c>
@@ -19160,27 +19404,27 @@
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
       <c r="AF1" s="5"/>
-      <c r="AG1" s="151" t="s">
+      <c r="AG1" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="151"/>
-      <c r="AJ1" s="151"/>
-      <c r="AK1" s="151"/>
-      <c r="AL1" s="151" t="s">
+      <c r="AH1" s="153"/>
+      <c r="AI1" s="153"/>
+      <c r="AJ1" s="153"/>
+      <c r="AK1" s="153"/>
+      <c r="AL1" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="AM1" s="151"/>
-      <c r="AN1" s="151"/>
-      <c r="AO1" s="151"/>
-      <c r="AP1" s="151"/>
-      <c r="AQ1" s="151" t="s">
+      <c r="AM1" s="153"/>
+      <c r="AN1" s="153"/>
+      <c r="AO1" s="153"/>
+      <c r="AP1" s="153"/>
+      <c r="AQ1" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="151"/>
-      <c r="AS1" s="151"/>
-      <c r="AT1" s="151"/>
-      <c r="AU1" s="151"/>
+      <c r="AR1" s="153"/>
+      <c r="AS1" s="153"/>
+      <c r="AT1" s="153"/>
+      <c r="AU1" s="153"/>
       <c r="AW1" s="1" t="s">
         <v>75</v>
       </c>
@@ -19375,7 +19619,7 @@
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="152" t="s">
+      <c r="O3" s="154" t="s">
         <v>10</v>
       </c>
       <c r="P3" s="9"/>
@@ -19419,7 +19663,7 @@
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="152"/>
+      <c r="O4" s="154"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
@@ -19459,7 +19703,7 @@
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="152"/>
+      <c r="O5" s="154"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
@@ -21063,14 +21307,14 @@
     </row>
     <row r="18" spans="1:64" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="76"/>
-      <c r="B18" s="153" t="s">
+      <c r="B18" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="153"/>
-      <c r="D18" s="153"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="154"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="156"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="3">
@@ -21203,12 +21447,12 @@
     </row>
     <row r="19" spans="1:64" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="76"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="154"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="156"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -21249,12 +21493,12 @@
     </row>
     <row r="20" spans="1:64" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="76"/>
-      <c r="B20" s="153"/>
-      <c r="C20" s="153"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="154"/>
+      <c r="B20" s="155"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="156"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -21343,7 +21587,7 @@
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="23">
-        <f t="shared" ref="X21:Z25" si="39">$V15-X15</f>
+        <f t="shared" ref="X21:Z24" si="39">$V15-X15</f>
         <v>3.8779134576271019</v>
       </c>
       <c r="Y21" s="23">
@@ -24081,8 +24325,8 @@
   </sheetPr>
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25429,7 +25673,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="159">
+      <c r="A7" s="161">
         <v>200</v>
       </c>
       <c r="B7" s="118">
@@ -25458,7 +25702,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="159"/>
+      <c r="A8" s="161"/>
       <c r="B8" s="118">
         <v>3.1325500000000002</v>
       </c>
@@ -25478,7 +25722,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="159"/>
+      <c r="A9" s="161"/>
       <c r="B9" s="118">
         <v>6.28254</v>
       </c>
@@ -25498,7 +25742,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="159">
+      <c r="A11" s="161">
         <v>300</v>
       </c>
       <c r="B11" s="119">
@@ -25516,7 +25760,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="159"/>
+      <c r="A12" s="161"/>
       <c r="B12" s="119">
         <v>2.56698</v>
       </c>
@@ -25525,7 +25769,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="159"/>
+      <c r="A13" s="161"/>
       <c r="B13" s="119">
         <v>5.1886299999999999</v>
       </c>
@@ -25534,7 +25778,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="159">
+      <c r="A15" s="161">
         <v>400</v>
       </c>
       <c r="B15" s="106">
@@ -25552,7 +25796,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="159"/>
+      <c r="A16" s="161"/>
       <c r="B16" s="106">
         <v>2.1520299999999999</v>
       </c>
@@ -25561,7 +25805,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="159"/>
+      <c r="A17" s="161"/>
       <c r="B17" s="106">
         <v>4.3627200000000004</v>
       </c>
@@ -25570,7 +25814,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="159">
+      <c r="A19" s="161">
         <v>600</v>
       </c>
       <c r="B19" s="106">
@@ -25588,7 +25832,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="159"/>
+      <c r="A20" s="161"/>
       <c r="B20" s="106">
         <v>1.9169700000000001</v>
       </c>
@@ -25597,7 +25841,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="159"/>
+      <c r="A21" s="161"/>
       <c r="B21" s="106">
         <v>3.8989400000000001</v>
       </c>
